--- a/Documents/閩南語注音二式/台語注音二式.xlsx
+++ b/Documents/閩南語注音二式/台語注音二式.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\Documents\閩南語注音二式\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E222CAA-AEA3-4DB4-AD95-DCC4913415DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B8A7B2-3337-44CE-874E-555664027D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-195" windowWidth="38640" windowHeight="15720" tabRatio="869" xr2:uid="{B4E892DE-B6D3-466A-857D-93FA58C14323}"/>
   </bookViews>
   <sheets>
-    <sheet name="聲母" sheetId="14" r:id="rId1"/>
+    <sheet name="聲母" sheetId="17" r:id="rId1"/>
     <sheet name="韻母" sheetId="15" r:id="rId2"/>
     <sheet name="十五音聲母對照表" sheetId="2" r:id="rId3"/>
     <sheet name="十五音韻母對照表" sheetId="3" r:id="rId4"/>
@@ -31,16 +31,26 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">十五音韻母對照表!$B$3:$O$103</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11">廣韻韻母清單!$B$4:$K$104</definedName>
+    <definedName name="十五音韻母" localSheetId="0">#REF!</definedName>
     <definedName name="十五音韻母">#REF!</definedName>
+    <definedName name="十五音韻母對照表" localSheetId="0">#REF!</definedName>
     <definedName name="十五音韻母對照表">#REF!</definedName>
+    <definedName name="台羅韻母八音反切" localSheetId="0">#REF!</definedName>
     <definedName name="台羅韻母八音反切">#REF!</definedName>
+    <definedName name="白話字韻母八音反切" localSheetId="0">#REF!</definedName>
     <definedName name="白話字韻母八音反切">#REF!</definedName>
+    <definedName name="閩拼韻母八音反切" localSheetId="0">#REF!</definedName>
     <definedName name="閩拼韻母八音反切">#REF!</definedName>
+    <definedName name="聲母碼" localSheetId="0">十五音聲母對照表!$C$4:$C$25</definedName>
     <definedName name="聲母碼">十五音聲母對照表!$C$4:$C$25</definedName>
+    <definedName name="聲母碼表" localSheetId="0">#REF!</definedName>
     <definedName name="聲母碼表">#REF!</definedName>
     <definedName name="韻母對照表" localSheetId="11">廣韻韻母清單!$B$5:$K$104</definedName>
+    <definedName name="韻母對照表" localSheetId="0">#REF!</definedName>
     <definedName name="韻母對照表">#REF!</definedName>
+    <definedName name="韻母碼表" localSheetId="0">#REF!</definedName>
     <definedName name="韻母碼表">#REF!</definedName>
+    <definedName name="顯示注音輸入" localSheetId="0">#REF!</definedName>
     <definedName name="顯示注音輸入">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -86,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6745" uniqueCount="2481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6756" uniqueCount="2490">
   <si>
     <t>Ø</t>
   </si>
@@ -9067,6 +9077,42 @@
     <t>s/sh(i)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>鼻音</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>擦音</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邊音</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jj(i)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz(i)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch(i)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh(i)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -9076,7 +9122,7 @@
     <numFmt numFmtId="176" formatCode="General;;"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="174">
+  <fonts count="172">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -10083,28 +10129,12 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Noto Serif TC Medium"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <sz val="24"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color rgb="FF0C0301"/>
-      <name val="Noto Serif HK SemiBold"/>
-      <family val="1"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="20"/>
@@ -10132,61 +10162,6 @@
       <color rgb="FF0C0301"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Noto Serif TC Medium"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="Noto Serif TC Medium"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="36"/>
-      <color theme="1"/>
-      <name val="吳守禮標楷台語注音"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="36"/>
-      <color theme="1"/>
-      <name val="吳守禮標楷台語破音01"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="36"/>
-      <color rgb="FFFF0000"/>
-      <name val="吳守禮標楷台語破音03"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="36"/>
-      <color rgb="FFFF0000"/>
-      <name val="吳守禮標楷台語注音"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="36"/>
-      <name val="吳守禮標楷台語注音"/>
-      <family val="3"/>
-      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -10252,6 +10227,64 @@
       <color theme="1"/>
       <name val="Noto Serif TC Medium"/>
       <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Noto Serif TC Black"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Noto Serif TC Black"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Noto Serif TC Black"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF0C0301"/>
+      <name val="Noto Serif TC Black"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Noto Sans TC Black"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="吳守禮標楷台語注音"/>
+      <family val="3"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -10401,7 +10434,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -10808,6 +10841,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashed">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashed">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="dashed">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -10838,7 +10931,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="387">
+  <cellXfs count="382">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11726,37 +11819,28 @@
     <xf numFmtId="0" fontId="147" fillId="10" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="150" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="149" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="19" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="154" fillId="19" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="19" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="154" fillId="19" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="149" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11765,55 +11849,16 @@
     <xf numFmtId="0" fontId="149" fillId="2" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="158" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="158" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="158" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="159" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="160" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="161" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="161" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="163" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="164" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="152" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="165" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="135" fillId="13" borderId="20" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="132" fillId="13" borderId="20" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="14" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="156" fillId="14" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="156" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -11822,7 +11867,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="14" borderId="19" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="156" fillId="14" borderId="19" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
@@ -11831,10 +11876,10 @@
     <xf numFmtId="0" fontId="99" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="14" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="157" fillId="14" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1">
@@ -11846,10 +11891,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="19" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="152" fillId="19" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="19" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="158" fillId="19" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
@@ -11879,10 +11924,10 @@
     <xf numFmtId="0" fontId="79" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="13" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="159" fillId="13" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="13" borderId="0" xfId="8" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="159" fillId="13" borderId="0" xfId="8" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="80" fillId="23" borderId="19" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11891,58 +11936,28 @@
     <xf numFmtId="0" fontId="79" fillId="2" borderId="19" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="24" borderId="21" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="160" fillId="24" borderId="21" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="9" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="161" fillId="9" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="9" borderId="18" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="161" fillId="9" borderId="18" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="9" borderId="19" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="161" fillId="9" borderId="19" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="9" borderId="20" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="161" fillId="9" borderId="20" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="172" fillId="14" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="162" fillId="14" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="91" fillId="15" borderId="19" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="173" fillId="17" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="150" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="150" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="150" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="150" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="150" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="150" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="163" fillId="17" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11989,6 +12004,69 @@
     </xf>
     <xf numFmtId="0" fontId="111" fillId="20" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -14452,448 +14530,537 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B9CD0D3-386D-4BB2-A9CF-81123837418F}">
-  <dimension ref="B2:Y10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE9F03E-6C48-4203-AAA5-0EB3A93C773E}">
+  <dimension ref="B1:S17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="32.25" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="20" style="303" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="303" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="5" width="8.375" style="304" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="304" customWidth="1"/>
-    <col min="7" max="8" width="8.375" style="304" customWidth="1"/>
-    <col min="9" max="9" width="10.25" style="304" customWidth="1"/>
-    <col min="10" max="11" width="8.375" style="304" customWidth="1"/>
-    <col min="12" max="12" width="10.25" style="304" customWidth="1"/>
-    <col min="13" max="14" width="8.375" style="304" customWidth="1"/>
-    <col min="15" max="15" width="10.25" style="304" customWidth="1"/>
-    <col min="16" max="17" width="8.375" style="304" customWidth="1"/>
-    <col min="18" max="18" width="10.25" style="304" customWidth="1"/>
-    <col min="19" max="20" width="8.375" style="304" customWidth="1"/>
-    <col min="21" max="21" width="10.25" style="304" customWidth="1"/>
-    <col min="22" max="24" width="9" style="301"/>
+    <col min="2" max="2" width="20" style="300" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="300" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="11" style="301" customWidth="1" collapsed="1"/>
+    <col min="5" max="15" width="11" style="301" customWidth="1"/>
+    <col min="16" max="18" width="9" style="299"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25" ht="39">
-      <c r="B2" s="368" t="s">
+    <row r="1" spans="2:19" ht="10.5" customHeight="1"/>
+    <row r="2" spans="2:19" ht="39">
+      <c r="B2" s="361" t="s">
         <v>2456</v>
       </c>
-      <c r="C2" s="369"/>
-      <c r="D2" s="313" t="s">
+      <c r="C2" s="362"/>
+      <c r="D2" s="363" t="s">
         <v>2440</v>
       </c>
-      <c r="E2" s="314"/>
-      <c r="F2" s="314"/>
-      <c r="G2" s="314"/>
-      <c r="H2" s="314"/>
-      <c r="I2" s="315"/>
-      <c r="J2" s="362" t="s">
+      <c r="E2" s="364"/>
+      <c r="F2" s="364"/>
+      <c r="G2" s="365"/>
+      <c r="H2" s="366" t="s">
         <v>2441</v>
       </c>
-      <c r="K2" s="363"/>
-      <c r="L2" s="364"/>
-      <c r="M2" s="362" t="s">
-        <v>1449</v>
-      </c>
-      <c r="N2" s="363"/>
-      <c r="O2" s="364"/>
-      <c r="P2" s="362" t="s">
-        <v>1450</v>
-      </c>
-      <c r="Q2" s="363"/>
-      <c r="R2" s="364"/>
-      <c r="S2" s="362" t="s">
-        <v>1451</v>
-      </c>
-      <c r="T2" s="363"/>
-      <c r="U2" s="364"/>
-    </row>
-    <row r="3" spans="2:25" ht="32.25" customHeight="1">
-      <c r="B3" s="370"/>
-      <c r="C3" s="371"/>
-      <c r="D3" s="312" t="s">
+      <c r="I2" s="367"/>
+      <c r="J2" s="366" t="s">
+        <v>2481</v>
+      </c>
+      <c r="K2" s="367"/>
+      <c r="L2" s="366" t="s">
+        <v>2482</v>
+      </c>
+      <c r="M2" s="367"/>
+      <c r="N2" s="366" t="s">
+        <v>2483</v>
+      </c>
+      <c r="O2" s="367"/>
+    </row>
+    <row r="3" spans="2:19" ht="32.25" customHeight="1">
+      <c r="B3" s="368"/>
+      <c r="C3" s="369"/>
+      <c r="D3" s="370" t="s">
         <v>2393</v>
       </c>
-      <c r="E3" s="312"/>
-      <c r="F3" s="300"/>
-      <c r="G3" s="299" t="s">
+      <c r="E3" s="371"/>
+      <c r="F3" s="370" t="s">
         <v>2394</v>
       </c>
-      <c r="H3" s="312"/>
-      <c r="I3" s="300"/>
-      <c r="J3" s="365"/>
-      <c r="K3" s="366"/>
-      <c r="L3" s="367"/>
-      <c r="M3" s="365"/>
-      <c r="N3" s="366"/>
-      <c r="O3" s="367"/>
-      <c r="P3" s="365"/>
-      <c r="Q3" s="366"/>
-      <c r="R3" s="367"/>
-      <c r="S3" s="365"/>
-      <c r="T3" s="366"/>
-      <c r="U3" s="367"/>
-    </row>
-    <row r="4" spans="2:25" ht="44.25">
-      <c r="B4" s="323" t="s">
+      <c r="G3" s="371"/>
+      <c r="H3" s="372"/>
+      <c r="I3" s="373"/>
+      <c r="J3" s="372"/>
+      <c r="K3" s="373"/>
+      <c r="L3" s="372"/>
+      <c r="M3" s="373"/>
+      <c r="N3" s="372"/>
+      <c r="O3" s="373"/>
+    </row>
+    <row r="4" spans="2:19" ht="45.75">
+      <c r="B4" s="374" t="s">
         <v>1455</v>
       </c>
-      <c r="C4" s="324" t="s">
+      <c r="C4" s="375" t="s">
         <v>1455</v>
       </c>
-      <c r="D4" s="302" t="s">
+      <c r="D4" s="376" t="s">
+        <v>2395</v>
+      </c>
+      <c r="E4" s="377" t="s">
+        <v>995</v>
+      </c>
+      <c r="F4" s="376" t="s">
+        <v>2396</v>
+      </c>
+      <c r="G4" s="377" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H4" s="376" t="s">
+        <v>2397</v>
+      </c>
+      <c r="I4" s="377" t="s">
+        <v>1862</v>
+      </c>
+      <c r="J4" s="376" t="s">
+        <v>2398</v>
+      </c>
+      <c r="K4" s="377" t="s">
+        <v>1088</v>
+      </c>
+      <c r="L4" s="376"/>
+      <c r="M4" s="377" t="s">
+        <v>1412</v>
+      </c>
+      <c r="N4" s="376"/>
+      <c r="O4" s="377" t="s">
+        <v>1412</v>
+      </c>
+      <c r="S4" s="299"/>
+    </row>
+    <row r="5" spans="2:19" ht="44.25">
+      <c r="B5" s="378"/>
+      <c r="C5" s="379"/>
+      <c r="D5" s="380" t="s">
         <v>1452</v>
       </c>
-      <c r="E4" s="319" t="s">
-        <v>2395</v>
-      </c>
-      <c r="F4" s="316" t="s">
+      <c r="E5" s="381" t="s">
         <v>2442</v>
       </c>
-      <c r="G4" s="302" t="s">
+      <c r="F5" s="380" t="s">
         <v>1461</v>
       </c>
-      <c r="H4" s="319" t="s">
-        <v>2396</v>
-      </c>
-      <c r="I4" s="316" t="s">
+      <c r="G5" s="381" t="s">
         <v>2445</v>
       </c>
-      <c r="J4" s="302" t="s">
+      <c r="H5" s="380" t="s">
         <v>1469</v>
       </c>
-      <c r="K4" s="319" t="s">
-        <v>2397</v>
-      </c>
-      <c r="L4" s="317" t="s">
+      <c r="I5" s="381" t="s">
         <v>2448</v>
       </c>
-      <c r="M4" s="302" t="s">
+      <c r="J5" s="380" t="s">
         <v>1478</v>
       </c>
-      <c r="N4" s="319" t="s">
-        <v>2398</v>
-      </c>
-      <c r="O4" s="321" t="s">
+      <c r="K5" s="381" t="s">
         <v>2449</v>
       </c>
-      <c r="P4" s="302" t="s">
+      <c r="L5" s="380"/>
+      <c r="M5" s="381"/>
+      <c r="N5" s="380"/>
+      <c r="O5" s="381"/>
+      <c r="S5" s="299"/>
+    </row>
+    <row r="6" spans="2:19" ht="45.75">
+      <c r="B6" s="374" t="s">
+        <v>2436</v>
+      </c>
+      <c r="C6" s="375" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D6" s="376" t="s">
+        <v>2399</v>
+      </c>
+      <c r="E6" s="377" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F6" s="376" t="s">
+        <v>2400</v>
+      </c>
+      <c r="G6" s="377" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H6" s="376"/>
+      <c r="I6" s="377"/>
+      <c r="J6" s="376" t="s">
+        <v>2401</v>
+      </c>
+      <c r="K6" s="377" t="s">
+        <v>1093</v>
+      </c>
+      <c r="L6" s="376"/>
+      <c r="M6" s="377" t="s">
         <v>1412</v>
       </c>
-      <c r="Q4" s="319"/>
-      <c r="R4" s="316" t="s">
+      <c r="N6" s="376" t="s">
+        <v>2402</v>
+      </c>
+      <c r="O6" s="377" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="44.25">
+      <c r="B7" s="378"/>
+      <c r="C7" s="379"/>
+      <c r="D7" s="380" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E7" s="381" t="s">
+        <v>2443</v>
+      </c>
+      <c r="F7" s="380" t="s">
+        <v>1492</v>
+      </c>
+      <c r="G7" s="381" t="s">
+        <v>2446</v>
+      </c>
+      <c r="H7" s="380"/>
+      <c r="I7" s="381"/>
+      <c r="J7" s="380" t="s">
+        <v>1498</v>
+      </c>
+      <c r="K7" s="381" t="s">
+        <v>2450</v>
+      </c>
+      <c r="L7" s="380"/>
+      <c r="M7" s="381"/>
+      <c r="N7" s="380" t="s">
+        <v>1500</v>
+      </c>
+      <c r="O7" s="381" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="45.75">
+      <c r="B8" s="374" t="s">
+        <v>2437</v>
+      </c>
+      <c r="C8" s="375" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D8" s="376" t="s">
+        <v>2403</v>
+      </c>
+      <c r="E8" s="377" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F8" s="376" t="s">
+        <v>2404</v>
+      </c>
+      <c r="G8" s="377" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H8" s="376" t="s">
+        <v>2405</v>
+      </c>
+      <c r="I8" s="377" t="s">
+        <v>1864</v>
+      </c>
+      <c r="J8" s="376"/>
+      <c r="K8" s="377"/>
+      <c r="L8" s="376" t="s">
+        <v>2406</v>
+      </c>
+      <c r="M8" s="377" t="s">
+        <v>2484</v>
+      </c>
+      <c r="N8" s="376"/>
+      <c r="O8" s="377" t="s">
         <v>1412</v>
       </c>
-      <c r="S4" s="302" t="s">
+    </row>
+    <row r="9" spans="2:19" ht="44.25">
+      <c r="B9" s="378"/>
+      <c r="C9" s="379"/>
+      <c r="D9" s="380" t="s">
+        <v>1513</v>
+      </c>
+      <c r="E9" s="381" t="s">
+        <v>2328</v>
+      </c>
+      <c r="F9" s="380" t="s">
+        <v>1516</v>
+      </c>
+      <c r="G9" s="381" t="s">
+        <v>2213</v>
+      </c>
+      <c r="H9" s="380" t="s">
+        <v>1608</v>
+      </c>
+      <c r="I9" s="381" t="s">
+        <v>1690</v>
+      </c>
+      <c r="J9" s="380"/>
+      <c r="K9" s="381"/>
+      <c r="L9" s="380" t="s">
+        <v>2485</v>
+      </c>
+      <c r="M9" s="381" t="s">
+        <v>2331</v>
+      </c>
+      <c r="N9" s="380"/>
+      <c r="O9" s="381"/>
+    </row>
+    <row r="10" spans="2:19" ht="45.75">
+      <c r="B10" s="374" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C10" s="375" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D10" s="376" t="s">
+        <v>2407</v>
+      </c>
+      <c r="E10" s="377" t="s">
+        <v>2487</v>
+      </c>
+      <c r="F10" s="376" t="s">
+        <v>2408</v>
+      </c>
+      <c r="G10" s="377" t="s">
+        <v>2488</v>
+      </c>
+      <c r="H10" s="376" t="s">
+        <v>2409</v>
+      </c>
+      <c r="I10" s="377" t="s">
+        <v>2486</v>
+      </c>
+      <c r="J10" s="376"/>
+      <c r="K10" s="377"/>
+      <c r="L10" s="376" t="s">
+        <v>2410</v>
+      </c>
+      <c r="M10" s="377" t="s">
+        <v>2489</v>
+      </c>
+      <c r="N10" s="376"/>
+      <c r="O10" s="377" t="s">
         <v>1412</v>
       </c>
-      <c r="T4" s="319"/>
-      <c r="U4" s="316" t="s">
+    </row>
+    <row r="11" spans="2:19" ht="44.25">
+      <c r="B11" s="378"/>
+      <c r="C11" s="379"/>
+      <c r="D11" s="380" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E11" s="381" t="s">
+        <v>2214</v>
+      </c>
+      <c r="F11" s="380" t="s">
+        <v>1528</v>
+      </c>
+      <c r="G11" s="381" t="s">
+        <v>2453</v>
+      </c>
+      <c r="H11" s="380" t="s">
+        <v>1530</v>
+      </c>
+      <c r="I11" s="381" t="s">
+        <v>2212</v>
+      </c>
+      <c r="J11" s="380"/>
+      <c r="K11" s="381"/>
+      <c r="L11" s="380" t="s">
+        <v>1533</v>
+      </c>
+      <c r="M11" s="381" t="s">
+        <v>2331</v>
+      </c>
+      <c r="N11" s="380"/>
+      <c r="O11" s="381"/>
+    </row>
+    <row r="12" spans="2:19" ht="45.75">
+      <c r="B12" s="374" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C12" s="375" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D12" s="376" t="s">
+        <v>2411</v>
+      </c>
+      <c r="E12" s="377" t="s">
+        <v>999</v>
+      </c>
+      <c r="F12" s="376" t="s">
+        <v>2412</v>
+      </c>
+      <c r="G12" s="377" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H12" s="376" t="s">
+        <v>2413</v>
+      </c>
+      <c r="I12" s="377" t="s">
+        <v>1865</v>
+      </c>
+      <c r="J12" s="376" t="s">
+        <v>2414</v>
+      </c>
+      <c r="K12" s="377" t="s">
+        <v>1098</v>
+      </c>
+      <c r="L12" s="376" t="s">
         <v>1412</v>
       </c>
-      <c r="Y4" s="301"/>
-    </row>
-    <row r="5" spans="2:25" ht="44.25">
-      <c r="B5" s="323" t="s">
-        <v>2436</v>
-      </c>
-      <c r="C5" s="324" t="s">
-        <v>1464</v>
-      </c>
-      <c r="D5" s="318" t="s">
-        <v>1484</v>
-      </c>
-      <c r="E5" s="319" t="s">
-        <v>2399</v>
-      </c>
-      <c r="F5" s="316" t="s">
-        <v>2443</v>
-      </c>
-      <c r="G5" s="318" t="s">
-        <v>1492</v>
-      </c>
-      <c r="H5" s="319" t="s">
-        <v>2400</v>
-      </c>
-      <c r="I5" s="316" t="s">
-        <v>2446</v>
-      </c>
-      <c r="J5" s="318"/>
-      <c r="K5" s="319"/>
-      <c r="L5" s="316"/>
-      <c r="M5" s="318" t="s">
-        <v>1498</v>
-      </c>
-      <c r="N5" s="319" t="s">
-        <v>2401</v>
-      </c>
-      <c r="O5" s="321" t="s">
-        <v>2450</v>
-      </c>
-      <c r="P5" s="318" t="s">
+      <c r="M12" s="377"/>
+      <c r="N12" s="376"/>
+      <c r="O12" s="377" t="s">
         <v>1412</v>
       </c>
-      <c r="Q5" s="319"/>
-      <c r="R5" s="316" t="s">
+    </row>
+    <row r="13" spans="2:19" ht="44.25">
+      <c r="B13" s="378"/>
+      <c r="C13" s="379"/>
+      <c r="D13" s="380" t="s">
+        <v>1502</v>
+      </c>
+      <c r="E13" s="381" t="s">
+        <v>2444</v>
+      </c>
+      <c r="F13" s="380" t="s">
+        <v>1506</v>
+      </c>
+      <c r="G13" s="381" t="s">
+        <v>2447</v>
+      </c>
+      <c r="H13" s="380" t="s">
+        <v>1507</v>
+      </c>
+      <c r="I13" s="381" t="s">
+        <v>2454</v>
+      </c>
+      <c r="J13" s="380" t="s">
+        <v>1604</v>
+      </c>
+      <c r="K13" s="381" t="s">
+        <v>2451</v>
+      </c>
+      <c r="L13" s="380"/>
+      <c r="M13" s="381"/>
+      <c r="N13" s="380"/>
+      <c r="O13" s="381"/>
+    </row>
+    <row r="14" spans="2:19" ht="45.75">
+      <c r="B14" s="374" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C14" s="375" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D14" s="376"/>
+      <c r="E14" s="377"/>
+      <c r="F14" s="376"/>
+      <c r="G14" s="377"/>
+      <c r="H14" s="376"/>
+      <c r="I14" s="377"/>
+      <c r="J14" s="376"/>
+      <c r="K14" s="377"/>
+      <c r="L14" s="376" t="s">
+        <v>2415</v>
+      </c>
+      <c r="M14" s="377" t="s">
+        <v>1084</v>
+      </c>
+      <c r="N14" s="376"/>
+      <c r="O14" s="377" t="s">
         <v>1412</v>
       </c>
-      <c r="S5" s="318" t="s">
-        <v>1500</v>
-      </c>
-      <c r="T5" s="319" t="s">
-        <v>2402</v>
-      </c>
-      <c r="U5" s="316" t="s">
-        <v>2452</v>
-      </c>
-    </row>
-    <row r="6" spans="2:25" ht="44.25">
-      <c r="B6" s="323" t="s">
-        <v>2437</v>
-      </c>
-      <c r="C6" s="324" t="s">
-        <v>1472</v>
-      </c>
-      <c r="D6" s="318" t="s">
-        <v>1513</v>
-      </c>
-      <c r="E6" s="319" t="s">
-        <v>2403</v>
-      </c>
-      <c r="F6" s="316" t="s">
-        <v>2328</v>
-      </c>
-      <c r="G6" s="318" t="s">
-        <v>1516</v>
-      </c>
-      <c r="H6" s="319" t="s">
-        <v>2404</v>
-      </c>
-      <c r="I6" s="316" t="s">
-        <v>2213</v>
-      </c>
-      <c r="J6" s="318" t="s">
-        <v>1608</v>
-      </c>
-      <c r="K6" s="319" t="s">
-        <v>2405</v>
-      </c>
-      <c r="L6" s="320" t="s">
-        <v>1690</v>
-      </c>
-      <c r="M6" s="318" t="s">
+    </row>
+    <row r="15" spans="2:19" ht="44.25">
+      <c r="B15" s="378"/>
+      <c r="C15" s="379"/>
+      <c r="D15" s="380"/>
+      <c r="E15" s="381"/>
+      <c r="F15" s="380"/>
+      <c r="G15" s="381"/>
+      <c r="H15" s="380"/>
+      <c r="I15" s="381"/>
+      <c r="J15" s="380"/>
+      <c r="K15" s="381"/>
+      <c r="L15" s="380" t="s">
+        <v>1510</v>
+      </c>
+      <c r="M15" s="381" t="s">
+        <v>2455</v>
+      </c>
+      <c r="N15" s="380"/>
+      <c r="O15" s="381"/>
+    </row>
+    <row r="16" spans="2:19" ht="45.75">
+      <c r="B16" s="374" t="s">
+        <v>2438</v>
+      </c>
+      <c r="C16" s="375" t="s">
+        <v>2439</v>
+      </c>
+      <c r="D16" s="376"/>
+      <c r="E16" s="377"/>
+      <c r="F16" s="376"/>
+      <c r="G16" s="377"/>
+      <c r="H16" s="376"/>
+      <c r="I16" s="377"/>
+      <c r="J16" s="376"/>
+      <c r="K16" s="377"/>
+      <c r="L16" s="376"/>
+      <c r="M16" s="377"/>
+      <c r="N16" s="376"/>
+      <c r="O16" s="377" t="s">
         <v>1412</v>
       </c>
-      <c r="N6" s="319"/>
-      <c r="O6" s="321"/>
-      <c r="P6" s="318" t="s">
-        <v>1521</v>
-      </c>
-      <c r="Q6" s="319" t="s">
-        <v>2406</v>
-      </c>
-      <c r="R6" s="316" t="s">
-        <v>2331</v>
-      </c>
-      <c r="S6" s="318" t="s">
+    </row>
+    <row r="17" spans="2:15" ht="44.25">
+      <c r="B17" s="378"/>
+      <c r="C17" s="379"/>
+      <c r="D17" s="380"/>
+      <c r="E17" s="381"/>
+      <c r="F17" s="380"/>
+      <c r="G17" s="381"/>
+      <c r="H17" s="380"/>
+      <c r="I17" s="381"/>
+      <c r="J17" s="380"/>
+      <c r="K17" s="381"/>
+      <c r="L17" s="380"/>
+      <c r="M17" s="381"/>
+      <c r="N17" s="380"/>
+      <c r="O17" s="381" t="s">
         <v>1412</v>
       </c>
-      <c r="T6" s="319"/>
-      <c r="U6" s="316" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="7" spans="2:25" ht="44.25">
-      <c r="B7" s="323" t="s">
-        <v>1479</v>
-      </c>
-      <c r="C7" s="324" t="s">
-        <v>1479</v>
-      </c>
-      <c r="D7" s="318" t="s">
-        <v>1524</v>
-      </c>
-      <c r="E7" s="319" t="s">
-        <v>2407</v>
-      </c>
-      <c r="F7" s="321" t="s">
-        <v>2214</v>
-      </c>
-      <c r="G7" s="318" t="s">
-        <v>1528</v>
-      </c>
-      <c r="H7" s="319" t="s">
-        <v>2408</v>
-      </c>
-      <c r="I7" s="321" t="s">
-        <v>2453</v>
-      </c>
-      <c r="J7" s="318" t="s">
-        <v>1530</v>
-      </c>
-      <c r="K7" s="319" t="s">
-        <v>2409</v>
-      </c>
-      <c r="L7" s="322" t="s">
-        <v>2212</v>
-      </c>
-      <c r="M7" s="318" t="s">
-        <v>1412</v>
-      </c>
-      <c r="N7" s="319"/>
-      <c r="O7" s="321"/>
-      <c r="P7" s="318" t="s">
-        <v>1533</v>
-      </c>
-      <c r="Q7" s="319" t="s">
-        <v>2410</v>
-      </c>
-      <c r="R7" s="316" t="s">
-        <v>2331</v>
-      </c>
-      <c r="S7" s="318" t="s">
-        <v>1412</v>
-      </c>
-      <c r="T7" s="319"/>
-      <c r="U7" s="316" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="8" spans="2:25" ht="44.25">
-      <c r="B8" s="323" t="s">
-        <v>1487</v>
-      </c>
-      <c r="C8" s="324" t="s">
-        <v>1487</v>
-      </c>
-      <c r="D8" s="318" t="s">
-        <v>1502</v>
-      </c>
-      <c r="E8" s="319" t="s">
-        <v>2411</v>
-      </c>
-      <c r="F8" s="316" t="s">
-        <v>2444</v>
-      </c>
-      <c r="G8" s="318" t="s">
-        <v>1506</v>
-      </c>
-      <c r="H8" s="319" t="s">
-        <v>2412</v>
-      </c>
-      <c r="I8" s="316" t="s">
-        <v>2447</v>
-      </c>
-      <c r="J8" s="318" t="s">
-        <v>1507</v>
-      </c>
-      <c r="K8" s="319" t="s">
-        <v>2413</v>
-      </c>
-      <c r="L8" s="316" t="s">
-        <v>2454</v>
-      </c>
-      <c r="M8" s="318" t="s">
-        <v>1604</v>
-      </c>
-      <c r="N8" s="319" t="s">
-        <v>2414</v>
-      </c>
-      <c r="O8" s="321" t="s">
-        <v>2451</v>
-      </c>
-      <c r="P8" s="318" t="s">
-        <v>1412</v>
-      </c>
-      <c r="Q8" s="319" t="s">
-        <v>1412</v>
-      </c>
-      <c r="R8" s="316"/>
-      <c r="S8" s="318" t="s">
-        <v>1412</v>
-      </c>
-      <c r="T8" s="319"/>
-      <c r="U8" s="316" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="9" spans="2:25" ht="44.25">
-      <c r="B9" s="323" t="s">
-        <v>1495</v>
-      </c>
-      <c r="C9" s="324" t="s">
-        <v>1495</v>
-      </c>
-      <c r="D9" s="318"/>
-      <c r="E9" s="319"/>
-      <c r="F9" s="316"/>
-      <c r="G9" s="318"/>
-      <c r="H9" s="319"/>
-      <c r="I9" s="316"/>
-      <c r="J9" s="318"/>
-      <c r="K9" s="319"/>
-      <c r="L9" s="316"/>
-      <c r="M9" s="318"/>
-      <c r="N9" s="319"/>
-      <c r="O9" s="316"/>
-      <c r="P9" s="318" t="s">
-        <v>1510</v>
-      </c>
-      <c r="Q9" s="319" t="s">
-        <v>2415</v>
-      </c>
-      <c r="R9" s="316" t="s">
-        <v>2455</v>
-      </c>
-      <c r="S9" s="318" t="s">
-        <v>1412</v>
-      </c>
-      <c r="T9" s="319"/>
-      <c r="U9" s="316" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="10" spans="2:25" ht="44.25">
-      <c r="B10" s="323" t="s">
-        <v>2438</v>
-      </c>
-      <c r="C10" s="324" t="s">
-        <v>2439</v>
-      </c>
-      <c r="D10" s="318"/>
-      <c r="E10" s="319"/>
-      <c r="F10" s="316"/>
-      <c r="G10" s="318"/>
-      <c r="H10" s="319"/>
-      <c r="I10" s="316"/>
-      <c r="J10" s="318"/>
-      <c r="K10" s="319"/>
-      <c r="L10" s="316"/>
-      <c r="M10" s="318"/>
-      <c r="N10" s="319"/>
-      <c r="O10" s="316"/>
-      <c r="P10" s="318"/>
-      <c r="Q10" s="319"/>
-      <c r="R10" s="316"/>
-      <c r="S10" s="318" t="s">
-        <v>1412</v>
-      </c>
-      <c r="T10" s="319"/>
-      <c r="U10" s="316" t="s">
-        <v>1412</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="M2:O3"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="S2:U3"/>
-    <mergeCell ref="P2:R3"/>
+  <mergeCells count="22">
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
     <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:I3"/>
+    <mergeCell ref="J2:K3"/>
+    <mergeCell ref="L2:M3"/>
+    <mergeCell ref="N2:O3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23674,7 +23841,7 @@
       </c>
       <c r="F3" s="191"/>
       <c r="G3" s="191"/>
-      <c r="I3" s="382" t="s">
+      <c r="I3" s="356" t="s">
         <v>1939</v>
       </c>
       <c r="J3" s="194" t="s">
@@ -23702,7 +23869,7 @@
       </c>
       <c r="F4" s="191"/>
       <c r="G4" s="191"/>
-      <c r="I4" s="383"/>
+      <c r="I4" s="357"/>
       <c r="J4" s="194" t="s">
         <v>1464</v>
       </c>
@@ -23728,7 +23895,7 @@
       </c>
       <c r="F5" s="191"/>
       <c r="G5" s="191"/>
-      <c r="I5" s="383"/>
+      <c r="I5" s="357"/>
       <c r="J5" s="194" t="s">
         <v>1487</v>
       </c>
@@ -23754,7 +23921,7 @@
       </c>
       <c r="F6" s="191"/>
       <c r="G6" s="191"/>
-      <c r="I6" s="383"/>
+      <c r="I6" s="357"/>
       <c r="J6" s="194" t="s">
         <v>1946</v>
       </c>
@@ -23782,7 +23949,7 @@
       <c r="G7" s="191" t="s">
         <v>1914</v>
       </c>
-      <c r="I7" s="384"/>
+      <c r="I7" s="358"/>
       <c r="J7" s="194" t="s">
         <v>1949</v>
       </c>
@@ -23810,10 +23977,10 @@
       <c r="G8" s="191" t="s">
         <v>1915</v>
       </c>
-      <c r="I8" s="385" t="s">
+      <c r="I8" s="359" t="s">
         <v>1956</v>
       </c>
-      <c r="J8" s="386"/>
+      <c r="J8" s="360"/>
       <c r="K8" s="195" t="s">
         <v>1957</v>
       </c>
@@ -23836,7 +24003,7 @@
       <c r="G9" s="191" t="s">
         <v>1925</v>
       </c>
-      <c r="I9" s="382" t="s">
+      <c r="I9" s="356" t="s">
         <v>1959</v>
       </c>
       <c r="J9" s="194" t="s">
@@ -23858,7 +24025,7 @@
       </c>
       <c r="F10" s="191"/>
       <c r="G10" s="191"/>
-      <c r="I10" s="383"/>
+      <c r="I10" s="357"/>
       <c r="J10" s="194" t="s">
         <v>1963</v>
       </c>
@@ -23878,7 +24045,7 @@
       </c>
       <c r="F11" s="191"/>
       <c r="G11" s="191"/>
-      <c r="I11" s="383"/>
+      <c r="I11" s="357"/>
       <c r="J11" s="194" t="s">
         <v>1966</v>
       </c>
@@ -23887,7 +24054,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="26.25" thickBot="1">
-      <c r="I12" s="384"/>
+      <c r="I12" s="358"/>
       <c r="J12" s="194" t="s">
         <v>1968</v>
       </c>
@@ -24065,336 +24232,336 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.75"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="303" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="303" customWidth="1"/>
-    <col min="3" max="21" width="9.875" style="303" customWidth="1"/>
-    <col min="22" max="23" width="9" style="303"/>
-    <col min="24" max="24" width="26.125" style="303" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="303"/>
+    <col min="1" max="1" width="3.375" style="300" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="300" customWidth="1"/>
+    <col min="3" max="21" width="9.875" style="300" customWidth="1"/>
+    <col min="22" max="23" width="9" style="300"/>
+    <col min="24" max="24" width="26.125" style="300" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="300"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:28" ht="33">
-      <c r="B2" s="305" t="s">
+      <c r="B2" s="302" t="s">
         <v>2416</v>
       </c>
-      <c r="X2" s="306" t="s">
+      <c r="X2" s="303" t="s">
         <v>2417</v>
       </c>
     </row>
     <row r="4" spans="2:28">
-      <c r="B4" s="307" t="s">
+      <c r="B4" s="304" t="s">
         <v>2418</v>
       </c>
-      <c r="C4" s="307" t="s">
+      <c r="C4" s="304" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="307" t="s">
+      <c r="D4" s="304" t="s">
         <v>149</v>
       </c>
-      <c r="E4" s="307" t="s">
+      <c r="E4" s="304" t="s">
         <v>2419</v>
       </c>
-      <c r="F4" s="307" t="s">
+      <c r="F4" s="304" t="s">
         <v>208</v>
       </c>
-      <c r="G4" s="307" t="s">
+      <c r="G4" s="304" t="s">
         <v>260</v>
       </c>
-      <c r="H4" s="307" t="s">
+      <c r="H4" s="304" t="s">
         <v>391</v>
       </c>
-      <c r="I4" s="307" t="s">
+      <c r="I4" s="304" t="s">
         <v>2420</v>
       </c>
-      <c r="J4" s="307" t="s">
+      <c r="J4" s="304" t="s">
         <v>2421</v>
       </c>
-      <c r="K4" s="307" t="s">
+      <c r="K4" s="304" t="s">
         <v>2422</v>
       </c>
-      <c r="L4" s="307" t="s">
+      <c r="L4" s="304" t="s">
         <v>604</v>
       </c>
-      <c r="M4" s="307" t="s">
+      <c r="M4" s="304" t="s">
         <v>2423</v>
       </c>
-      <c r="N4" s="307" t="s">
+      <c r="N4" s="304" t="s">
         <v>648</v>
       </c>
-      <c r="O4" s="307" t="s">
+      <c r="O4" s="304" t="s">
         <v>732</v>
       </c>
-      <c r="P4" s="307" t="s">
+      <c r="P4" s="304" t="s">
         <v>790</v>
       </c>
-      <c r="Q4" s="307" t="s">
+      <c r="Q4" s="304" t="s">
         <v>2424</v>
       </c>
-      <c r="R4" s="307" t="s">
+      <c r="R4" s="304" t="s">
         <v>889</v>
       </c>
-      <c r="S4" s="307" t="s">
+      <c r="S4" s="304" t="s">
         <v>921</v>
       </c>
-      <c r="T4" s="307" t="s">
+      <c r="T4" s="304" t="s">
         <v>949</v>
       </c>
-      <c r="U4" s="307" t="s">
+      <c r="U4" s="304" t="s">
         <v>955</v>
       </c>
-      <c r="X4" s="307" t="s">
+      <c r="X4" s="304" t="s">
         <v>2417</v>
       </c>
-      <c r="Y4" s="307" t="s">
+      <c r="Y4" s="304" t="s">
         <v>2</v>
       </c>
-      <c r="Z4" s="307" t="s">
+      <c r="Z4" s="304" t="s">
         <v>6</v>
       </c>
-      <c r="AA4" s="307" t="s">
+      <c r="AA4" s="304" t="s">
         <v>14</v>
       </c>
-      <c r="AB4" s="307" t="s">
+      <c r="AB4" s="304" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:28">
-      <c r="B5" s="307" t="s">
+      <c r="B5" s="304" t="s">
         <v>2425</v>
       </c>
-      <c r="C5" s="308" t="s">
+      <c r="C5" s="305" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="308" t="s">
+      <c r="D5" s="305" t="s">
         <v>150</v>
       </c>
-      <c r="E5" s="308" t="s">
+      <c r="E5" s="305" t="s">
         <v>181</v>
       </c>
-      <c r="F5" s="308" t="s">
+      <c r="F5" s="305" t="s">
         <v>209</v>
       </c>
-      <c r="G5" s="308" t="s">
+      <c r="G5" s="305" t="s">
         <v>261</v>
       </c>
-      <c r="H5" s="308" t="s">
+      <c r="H5" s="305" t="s">
         <v>392</v>
       </c>
-      <c r="I5" s="308" t="s">
+      <c r="I5" s="305" t="s">
         <v>517</v>
       </c>
-      <c r="J5" s="308" t="s">
+      <c r="J5" s="305" t="s">
         <v>543</v>
       </c>
-      <c r="K5" s="340" t="s">
+      <c r="K5" s="324" t="s">
         <v>2426</v>
       </c>
-      <c r="L5" s="308" t="s">
+      <c r="L5" s="305" t="s">
         <v>605</v>
       </c>
-      <c r="M5" s="308" t="s">
+      <c r="M5" s="305" t="s">
         <v>634</v>
       </c>
-      <c r="N5" s="308" t="s">
+      <c r="N5" s="305" t="s">
         <v>649</v>
       </c>
-      <c r="O5" s="308" t="s">
+      <c r="O5" s="305" t="s">
         <v>733</v>
       </c>
-      <c r="P5" s="308" t="s">
+      <c r="P5" s="305" t="s">
         <v>791</v>
       </c>
-      <c r="Q5" s="308" t="s">
+      <c r="Q5" s="305" t="s">
         <v>869</v>
       </c>
-      <c r="R5" s="308" t="s">
+      <c r="R5" s="305" t="s">
         <v>890</v>
       </c>
-      <c r="S5" s="308" t="s">
+      <c r="S5" s="305" t="s">
         <v>922</v>
       </c>
-      <c r="T5" s="308" t="s">
+      <c r="T5" s="305" t="s">
         <v>950</v>
       </c>
-      <c r="U5" s="308" t="s">
+      <c r="U5" s="305" t="s">
         <v>956</v>
       </c>
-      <c r="X5" s="307" t="s">
+      <c r="X5" s="304" t="s">
         <v>2427</v>
       </c>
-      <c r="Y5" s="308" t="s">
+      <c r="Y5" s="305" t="s">
         <v>1563</v>
       </c>
-      <c r="Z5" s="308" t="s">
+      <c r="Z5" s="305" t="s">
         <v>1564</v>
       </c>
-      <c r="AA5" s="308" t="s">
+      <c r="AA5" s="305" t="s">
         <v>1565</v>
       </c>
-      <c r="AB5" s="308" t="s">
+      <c r="AB5" s="305" t="s">
         <v>1657</v>
       </c>
     </row>
     <row r="6" spans="2:28">
-      <c r="B6" s="307" t="s">
+      <c r="B6" s="304" t="s">
         <v>2428</v>
       </c>
-      <c r="C6" s="308" t="s">
+      <c r="C6" s="305" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="308" t="s">
+      <c r="D6" s="305" t="s">
         <v>168</v>
       </c>
-      <c r="E6" s="308"/>
-      <c r="F6" s="308" t="s">
+      <c r="E6" s="305"/>
+      <c r="F6" s="305" t="s">
         <v>227</v>
       </c>
-      <c r="G6" s="308" t="s">
+      <c r="G6" s="305" t="s">
         <v>280</v>
       </c>
-      <c r="H6" s="308" t="s">
+      <c r="H6" s="305" t="s">
         <v>407</v>
       </c>
-      <c r="I6" s="308" t="s">
+      <c r="I6" s="305" t="s">
         <v>536</v>
       </c>
-      <c r="J6" s="308"/>
-      <c r="K6" s="308" t="s">
+      <c r="J6" s="305"/>
+      <c r="K6" s="305" t="s">
         <v>559</v>
       </c>
-      <c r="L6" s="308" t="s">
+      <c r="L6" s="305" t="s">
         <v>622</v>
       </c>
-      <c r="M6" s="308"/>
-      <c r="N6" s="308" t="s">
+      <c r="M6" s="305"/>
+      <c r="N6" s="305" t="s">
         <v>667</v>
       </c>
-      <c r="O6" s="308"/>
-      <c r="P6" s="308" t="s">
+      <c r="O6" s="305"/>
+      <c r="P6" s="305" t="s">
         <v>809</v>
       </c>
-      <c r="Q6" s="308" t="s">
+      <c r="Q6" s="305" t="s">
         <v>875</v>
       </c>
-      <c r="R6" s="308"/>
-      <c r="S6" s="308"/>
-      <c r="T6" s="309"/>
-      <c r="U6" s="309"/>
-      <c r="X6" s="307" t="s">
+      <c r="R6" s="305"/>
+      <c r="S6" s="305"/>
+      <c r="T6" s="306"/>
+      <c r="U6" s="306"/>
+      <c r="X6" s="304" t="s">
         <v>2429</v>
       </c>
-      <c r="Y6" s="308" t="s">
+      <c r="Y6" s="305" t="s">
         <v>2430</v>
       </c>
-      <c r="Z6" s="308" t="s">
+      <c r="Z6" s="305" t="s">
         <v>2431</v>
       </c>
-      <c r="AA6" s="308" t="s">
+      <c r="AA6" s="305" t="s">
         <v>2432</v>
       </c>
-      <c r="AB6" s="308" t="s">
+      <c r="AB6" s="305" t="s">
         <v>2433</v>
       </c>
     </row>
     <row r="7" spans="2:28">
-      <c r="B7" s="310" t="s">
+      <c r="B7" s="307" t="s">
         <v>1562</v>
       </c>
-      <c r="C7" s="308" t="s">
+      <c r="C7" s="305" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="308"/>
-      <c r="E7" s="308"/>
-      <c r="F7" s="308"/>
-      <c r="G7" s="308" t="s">
+      <c r="D7" s="305"/>
+      <c r="E7" s="305"/>
+      <c r="F7" s="305"/>
+      <c r="G7" s="305" t="s">
         <v>307</v>
       </c>
-      <c r="H7" s="308" t="s">
+      <c r="H7" s="305" t="s">
         <v>438</v>
       </c>
-      <c r="I7" s="308"/>
-      <c r="J7" s="308"/>
-      <c r="K7" s="308"/>
-      <c r="L7" s="308"/>
-      <c r="M7" s="308"/>
-      <c r="N7" s="308" t="s">
+      <c r="I7" s="305"/>
+      <c r="J7" s="305"/>
+      <c r="K7" s="305"/>
+      <c r="L7" s="305"/>
+      <c r="M7" s="305"/>
+      <c r="N7" s="305" t="s">
         <v>694</v>
       </c>
-      <c r="O7" s="309"/>
-      <c r="P7" s="309"/>
-      <c r="Q7" s="309"/>
-      <c r="R7" s="309"/>
-      <c r="S7" s="309"/>
-      <c r="T7" s="309"/>
-      <c r="U7" s="309"/>
+      <c r="O7" s="306"/>
+      <c r="P7" s="306"/>
+      <c r="Q7" s="306"/>
+      <c r="R7" s="306"/>
+      <c r="S7" s="306"/>
+      <c r="T7" s="306"/>
+      <c r="U7" s="306"/>
     </row>
     <row r="8" spans="2:28" ht="33">
-      <c r="B8" s="311" t="s">
+      <c r="B8" s="308" t="s">
         <v>2434</v>
       </c>
-      <c r="C8" s="308" t="s">
+      <c r="C8" s="305" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="308"/>
-      <c r="E8" s="308"/>
-      <c r="F8" s="308"/>
-      <c r="G8" s="308" t="s">
+      <c r="D8" s="305"/>
+      <c r="E8" s="305"/>
+      <c r="F8" s="305"/>
+      <c r="G8" s="305" t="s">
         <v>320</v>
       </c>
-      <c r="H8" s="308" t="s">
+      <c r="H8" s="305" t="s">
         <v>451</v>
       </c>
-      <c r="I8" s="308"/>
-      <c r="J8" s="308"/>
-      <c r="K8" s="308"/>
-      <c r="L8" s="308"/>
-      <c r="M8" s="308"/>
-      <c r="N8" s="308"/>
-      <c r="O8" s="308" t="s">
+      <c r="I8" s="305"/>
+      <c r="J8" s="305"/>
+      <c r="K8" s="305"/>
+      <c r="L8" s="305"/>
+      <c r="M8" s="305"/>
+      <c r="N8" s="305"/>
+      <c r="O8" s="305" t="s">
         <v>761</v>
       </c>
-      <c r="P8" s="339" t="s">
+      <c r="P8" s="323" t="s">
         <v>2469</v>
       </c>
-      <c r="Q8" s="309"/>
-      <c r="R8" s="309"/>
-      <c r="S8" s="309"/>
-      <c r="T8" s="309"/>
-      <c r="U8" s="309"/>
+      <c r="Q8" s="306"/>
+      <c r="R8" s="306"/>
+      <c r="S8" s="306"/>
+      <c r="T8" s="306"/>
+      <c r="U8" s="306"/>
     </row>
     <row r="9" spans="2:28">
-      <c r="B9" s="310" t="s">
+      <c r="B9" s="307" t="s">
         <v>2435</v>
       </c>
-      <c r="C9" s="308" t="s">
+      <c r="C9" s="305" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="308"/>
-      <c r="E9" s="308"/>
-      <c r="F9" s="308"/>
-      <c r="G9" s="308" t="s">
+      <c r="D9" s="305"/>
+      <c r="E9" s="305"/>
+      <c r="F9" s="305"/>
+      <c r="G9" s="305" t="s">
         <v>336</v>
       </c>
-      <c r="H9" s="308" t="s">
+      <c r="H9" s="305" t="s">
         <v>467</v>
       </c>
-      <c r="I9" s="308"/>
-      <c r="J9" s="308"/>
-      <c r="K9" s="308" t="s">
+      <c r="I9" s="305"/>
+      <c r="J9" s="305"/>
+      <c r="K9" s="305" t="s">
         <v>579</v>
       </c>
-      <c r="L9" s="308"/>
-      <c r="M9" s="308"/>
-      <c r="N9" s="308" t="s">
+      <c r="L9" s="305"/>
+      <c r="M9" s="305"/>
+      <c r="N9" s="305" t="s">
         <v>698</v>
       </c>
-      <c r="O9" s="309"/>
-      <c r="P9" s="309"/>
-      <c r="Q9" s="309"/>
-      <c r="R9" s="309"/>
-      <c r="S9" s="309"/>
-      <c r="T9" s="309"/>
-      <c r="U9" s="309"/>
+      <c r="O9" s="306"/>
+      <c r="P9" s="306"/>
+      <c r="Q9" s="306"/>
+      <c r="R9" s="306"/>
+      <c r="S9" s="306"/>
+      <c r="T9" s="306"/>
+      <c r="U9" s="306"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -32821,10 +32988,10 @@
       <c r="F2" s="79" t="s">
         <v>1401</v>
       </c>
-      <c r="G2" s="372" t="s">
+      <c r="G2" s="346" t="s">
         <v>1400</v>
       </c>
-      <c r="H2" s="373"/>
+      <c r="H2" s="347"/>
       <c r="I2" s="79" t="s">
         <v>1401</v>
       </c>
@@ -33227,158 +33394,158 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:39" s="178" customFormat="1">
-      <c r="B2" s="376" t="s">
+      <c r="B2" s="350" t="s">
         <v>2476</v>
       </c>
-      <c r="C2" s="377"/>
-      <c r="D2" s="381"/>
-      <c r="E2" s="379"/>
-      <c r="F2" s="378" t="s">
+      <c r="C2" s="351"/>
+      <c r="D2" s="355"/>
+      <c r="E2" s="353"/>
+      <c r="F2" s="352" t="s">
         <v>1084</v>
       </c>
-      <c r="G2" s="379"/>
-      <c r="H2" s="378" t="s">
+      <c r="G2" s="353"/>
+      <c r="H2" s="352" t="s">
         <v>995</v>
       </c>
-      <c r="I2" s="379"/>
-      <c r="J2" s="378" t="s">
+      <c r="I2" s="353"/>
+      <c r="J2" s="352" t="s">
         <v>1014</v>
       </c>
-      <c r="K2" s="379"/>
-      <c r="L2" s="378" t="s">
+      <c r="K2" s="353"/>
+      <c r="L2" s="352" t="s">
         <v>1862</v>
       </c>
-      <c r="M2" s="379"/>
-      <c r="N2" s="378" t="s">
+      <c r="M2" s="353"/>
+      <c r="N2" s="352" t="s">
         <v>1088</v>
       </c>
-      <c r="O2" s="379"/>
-      <c r="P2" s="378" t="s">
+      <c r="O2" s="353"/>
+      <c r="P2" s="352" t="s">
         <v>1009</v>
       </c>
-      <c r="Q2" s="379"/>
-      <c r="R2" s="378" t="s">
+      <c r="Q2" s="353"/>
+      <c r="R2" s="352" t="s">
         <v>1019</v>
       </c>
-      <c r="S2" s="379"/>
-      <c r="T2" s="378" t="s">
+      <c r="S2" s="353"/>
+      <c r="T2" s="352" t="s">
         <v>1093</v>
       </c>
-      <c r="U2" s="379"/>
-      <c r="V2" s="378" t="s">
+      <c r="U2" s="353"/>
+      <c r="V2" s="352" t="s">
         <v>991</v>
       </c>
-      <c r="W2" s="379"/>
-      <c r="X2" s="378" t="s">
+      <c r="W2" s="353"/>
+      <c r="X2" s="352" t="s">
         <v>2477</v>
       </c>
-      <c r="Y2" s="379"/>
-      <c r="Z2" s="380" t="s">
+      <c r="Y2" s="353"/>
+      <c r="Z2" s="354" t="s">
         <v>2478</v>
       </c>
-      <c r="AA2" s="379"/>
-      <c r="AB2" s="378" t="s">
+      <c r="AA2" s="353"/>
+      <c r="AB2" s="352" t="s">
         <v>2479</v>
       </c>
-      <c r="AC2" s="379"/>
-      <c r="AD2" s="380" t="s">
+      <c r="AC2" s="353"/>
+      <c r="AD2" s="354" t="s">
         <v>2480</v>
       </c>
-      <c r="AE2" s="379"/>
-      <c r="AF2" s="378" t="s">
+      <c r="AE2" s="353"/>
+      <c r="AF2" s="352" t="s">
         <v>999</v>
       </c>
-      <c r="AG2" s="379"/>
-      <c r="AH2" s="378" t="s">
+      <c r="AG2" s="353"/>
+      <c r="AH2" s="352" t="s">
         <v>1004</v>
       </c>
-      <c r="AI2" s="379"/>
-      <c r="AJ2" s="378" t="s">
+      <c r="AI2" s="353"/>
+      <c r="AJ2" s="352" t="s">
         <v>1865</v>
       </c>
-      <c r="AK2" s="379"/>
-      <c r="AL2" s="378" t="s">
+      <c r="AK2" s="353"/>
+      <c r="AL2" s="352" t="s">
         <v>1098</v>
       </c>
-      <c r="AM2" s="379"/>
+      <c r="AM2" s="353"/>
     </row>
     <row r="3" spans="2:39" ht="30">
-      <c r="B3" s="361"/>
+      <c r="B3" s="345"/>
       <c r="C3" s="1" t="s">
         <v>1669</v>
       </c>
-      <c r="D3" s="374" t="s">
+      <c r="D3" s="348" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="375"/>
-      <c r="F3" s="374" t="s">
+      <c r="E3" s="349"/>
+      <c r="F3" s="348" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="375"/>
-      <c r="H3" s="374" t="s">
+      <c r="G3" s="349"/>
+      <c r="H3" s="348" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="375"/>
-      <c r="J3" s="374" t="s">
+      <c r="I3" s="349"/>
+      <c r="J3" s="348" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="375"/>
-      <c r="L3" s="374" t="s">
+      <c r="K3" s="349"/>
+      <c r="L3" s="348" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="375"/>
-      <c r="N3" s="374" t="s">
+      <c r="M3" s="349"/>
+      <c r="N3" s="348" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="375"/>
-      <c r="P3" s="374" t="s">
+      <c r="O3" s="349"/>
+      <c r="P3" s="348" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="375"/>
-      <c r="R3" s="374" t="s">
+      <c r="Q3" s="349"/>
+      <c r="R3" s="348" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="375"/>
-      <c r="T3" s="374" t="s">
+      <c r="S3" s="349"/>
+      <c r="T3" s="348" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="375"/>
-      <c r="V3" s="374" t="s">
+      <c r="U3" s="349"/>
+      <c r="V3" s="348" t="s">
         <v>9</v>
       </c>
-      <c r="W3" s="375"/>
-      <c r="X3" s="374" t="s">
+      <c r="W3" s="349"/>
+      <c r="X3" s="348" t="s">
         <v>10</v>
       </c>
-      <c r="Y3" s="375"/>
-      <c r="Z3" s="374" t="s">
+      <c r="Y3" s="349"/>
+      <c r="Z3" s="348" t="s">
         <v>11</v>
       </c>
-      <c r="AA3" s="375"/>
-      <c r="AB3" s="374" t="s">
+      <c r="AA3" s="349"/>
+      <c r="AB3" s="348" t="s">
         <v>12</v>
       </c>
-      <c r="AC3" s="375"/>
-      <c r="AD3" s="374" t="s">
+      <c r="AC3" s="349"/>
+      <c r="AD3" s="348" t="s">
         <v>13</v>
       </c>
-      <c r="AE3" s="375"/>
-      <c r="AF3" s="374" t="s">
+      <c r="AE3" s="349"/>
+      <c r="AF3" s="348" t="s">
         <v>14</v>
       </c>
-      <c r="AG3" s="375"/>
-      <c r="AH3" s="374" t="s">
+      <c r="AG3" s="349"/>
+      <c r="AH3" s="348" t="s">
         <v>15</v>
       </c>
-      <c r="AI3" s="375"/>
-      <c r="AJ3" s="374" t="s">
+      <c r="AI3" s="349"/>
+      <c r="AJ3" s="348" t="s">
         <v>16</v>
       </c>
-      <c r="AK3" s="375"/>
-      <c r="AL3" s="374" t="s">
+      <c r="AK3" s="349"/>
+      <c r="AL3" s="348" t="s">
         <v>17</v>
       </c>
-      <c r="AM3" s="375"/>
+      <c r="AM3" s="349"/>
     </row>
     <row r="4" spans="2:39">
       <c r="B4" s="177" t="s">
@@ -49431,7 +49598,7 @@
       </c>
     </row>
     <row r="2" spans="2:84" s="120" customFormat="1" ht="30.75" thickBot="1">
-      <c r="B2" s="354" t="s">
+      <c r="B2" s="338" t="s">
         <v>1020</v>
       </c>
       <c r="C2" s="161" t="s">
@@ -49724,7 +49891,7 @@
       </c>
     </row>
     <row r="3" spans="2:84" ht="58.5" thickTop="1">
-      <c r="B3" s="355" cm="1">
+      <c r="B3" s="339" cm="1">
         <f t="array" ref="B3" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>1</v>
       </c>
@@ -50027,7 +50194,7 @@
       </c>
     </row>
     <row r="4" spans="2:84" ht="57.75">
-      <c r="B4" s="355" cm="1">
+      <c r="B4" s="339" cm="1">
         <f t="array" ref="B4" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>2</v>
       </c>
@@ -50329,7 +50496,7 @@
       </c>
     </row>
     <row r="5" spans="2:84" ht="57.75">
-      <c r="B5" s="355" cm="1">
+      <c r="B5" s="339" cm="1">
         <f t="array" ref="B5" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>3</v>
       </c>
@@ -50631,7 +50798,7 @@
       </c>
     </row>
     <row r="6" spans="2:84" ht="57.75">
-      <c r="B6" s="355" cm="1">
+      <c r="B6" s="339" cm="1">
         <f t="array" ref="B6" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>4</v>
       </c>
@@ -50933,7 +51100,7 @@
       </c>
     </row>
     <row r="7" spans="2:84" ht="57.75">
-      <c r="B7" s="356" cm="1">
+      <c r="B7" s="340" cm="1">
         <f t="array" ref="B7" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>5</v>
       </c>
@@ -51012,7 +51179,7 @@
       </c>
     </row>
     <row r="8" spans="2:84" ht="57.75">
-      <c r="B8" s="355" cm="1">
+      <c r="B8" s="339" cm="1">
         <f t="array" ref="B8" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>6</v>
       </c>
@@ -51091,7 +51258,7 @@
       </c>
     </row>
     <row r="9" spans="2:84" ht="57.75">
-      <c r="B9" s="355" cm="1">
+      <c r="B9" s="339" cm="1">
         <f t="array" ref="B9" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>7</v>
       </c>
@@ -51170,7 +51337,7 @@
       </c>
     </row>
     <row r="10" spans="2:84" ht="57.75">
-      <c r="B10" s="357" cm="1">
+      <c r="B10" s="341" cm="1">
         <f t="array" ref="B10" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>8</v>
       </c>
@@ -51249,7 +51416,7 @@
       </c>
     </row>
     <row r="11" spans="2:84" ht="57.75">
-      <c r="B11" s="355" cm="1">
+      <c r="B11" s="339" cm="1">
         <f t="array" ref="B11" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>9</v>
       </c>
@@ -51328,7 +51495,7 @@
       </c>
     </row>
     <row r="12" spans="2:84" ht="57.75">
-      <c r="B12" s="355" cm="1">
+      <c r="B12" s="339" cm="1">
         <f t="array" ref="B12" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>10</v>
       </c>
@@ -51407,7 +51574,7 @@
       </c>
     </row>
     <row r="13" spans="2:84" ht="57.75">
-      <c r="B13" s="355" cm="1">
+      <c r="B13" s="339" cm="1">
         <f t="array" ref="B13" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>11</v>
       </c>
@@ -51474,7 +51641,7 @@
       <c r="Z13" s="104"/>
     </row>
     <row r="14" spans="2:84" ht="57.75">
-      <c r="B14" s="357" cm="1">
+      <c r="B14" s="341" cm="1">
         <f t="array" ref="B14" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>12</v>
       </c>
@@ -51514,7 +51681,7 @@
         <f t="array" ref="L14" xml:space="preserve"> IFERROR( INDEX(聲母對照資料表[台語注音二式], MATCH(TRUE, EXACT($D14, 聲母碼),0)), "")</f>
         <v>ng</v>
       </c>
-      <c r="M14" s="360" t="s">
+      <c r="M14" s="344" t="s">
         <v>1493</v>
       </c>
       <c r="N14" s="111" t="s">
@@ -51541,7 +51708,7 @@
       <c r="Z14" s="104"/>
     </row>
     <row r="15" spans="2:84" ht="57.75">
-      <c r="B15" s="355" cm="1">
+      <c r="B15" s="339" cm="1">
         <f t="array" ref="B15" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>13</v>
       </c>
@@ -51554,7 +51721,7 @@
       <c r="E15" s="264" t="s">
         <v>1518</v>
       </c>
-      <c r="F15" s="359" t="s">
+      <c r="F15" s="343" t="s">
         <v>1690</v>
       </c>
       <c r="G15" s="171" t="str" cm="1">
@@ -51608,7 +51775,7 @@
       <c r="Z15" s="104"/>
     </row>
     <row r="16" spans="2:84" ht="57.75">
-      <c r="B16" s="355" cm="1">
+      <c r="B16" s="339" cm="1">
         <f t="array" ref="B16" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>14</v>
       </c>
@@ -51675,7 +51842,7 @@
       <c r="Z16" s="104"/>
     </row>
     <row r="17" spans="2:26" ht="57.75">
-      <c r="B17" s="355" cm="1">
+      <c r="B17" s="339" cm="1">
         <f t="array" ref="B17" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>15</v>
       </c>
@@ -51742,7 +51909,7 @@
       <c r="Z17" s="104"/>
     </row>
     <row r="18" spans="2:26" ht="57.75">
-      <c r="B18" s="357" cm="1">
+      <c r="B18" s="341" cm="1">
         <f t="array" ref="B18" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>16</v>
       </c>
@@ -51809,7 +51976,7 @@
       <c r="Z18" s="104"/>
     </row>
     <row r="19" spans="2:26" ht="57.75">
-      <c r="B19" s="355" cm="1">
+      <c r="B19" s="339" cm="1">
         <f t="array" ref="B19" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>17</v>
       </c>
@@ -51865,7 +52032,7 @@
       <c r="Z19" s="104"/>
     </row>
     <row r="20" spans="2:26" ht="57.75">
-      <c r="B20" s="355" cm="1">
+      <c r="B20" s="339" cm="1">
         <f t="array" ref="B20" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>18</v>
       </c>
@@ -51921,7 +52088,7 @@
       <c r="Z20" s="104"/>
     </row>
     <row r="21" spans="2:26" ht="57.75">
-      <c r="B21" s="355" cm="1">
+      <c r="B21" s="339" cm="1">
         <f t="array" ref="B21" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>19</v>
       </c>
@@ -51976,7 +52143,7 @@
       <c r="Z21" s="104"/>
     </row>
     <row r="22" spans="2:26" ht="58.5" thickBot="1">
-      <c r="B22" s="357" cm="1">
+      <c r="B22" s="341" cm="1">
         <f t="array" ref="B22" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>20</v>
       </c>
@@ -52043,7 +52210,7 @@
       <c r="Z22" s="104"/>
     </row>
     <row r="23" spans="2:26" ht="58.5" thickTop="1">
-      <c r="B23" s="355" cm="1">
+      <c r="B23" s="339" cm="1">
         <f t="array" ref="B23" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>21</v>
       </c>
@@ -52108,7 +52275,7 @@
       <c r="Z23" s="104"/>
     </row>
     <row r="24" spans="2:26" ht="57.75">
-      <c r="B24" s="357" cm="1">
+      <c r="B24" s="341" cm="1">
         <f t="array" ref="B24" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>22</v>
       </c>
@@ -52118,7 +52285,7 @@
       <c r="D24" s="262" t="s">
         <v>2210</v>
       </c>
-      <c r="E24" s="353" t="s">
+      <c r="E24" s="337" t="s">
         <v>0</v>
       </c>
       <c r="F24" s="170" t="s">
@@ -52132,19 +52299,19 @@
         <f t="array" ref="H24" xml:space="preserve"> IFERROR( INDEX(聲母對照資料表[十五音], MATCH(TRUE, EXACT($D24, 聲母碼),0)), "")</f>
         <v>英</v>
       </c>
-      <c r="I24" s="348" t="str" cm="1">
+      <c r="I24" s="332" t="str" cm="1">
         <f t="array" ref="I24" xml:space="preserve"> IFERROR( INDEX(聲母對照資料表[白話字], MATCH(TRUE, EXACT($D24, 聲母碼),0)), "")</f>
         <v>Ø</v>
       </c>
-      <c r="J24" s="348" t="str" cm="1">
+      <c r="J24" s="332" t="str" cm="1">
         <f t="array" ref="J24" xml:space="preserve"> IFERROR( INDEX(聲母對照資料表[台羅拼音], MATCH(TRUE, EXACT($D24, 聲母碼),0)), "")</f>
         <v>Ø</v>
       </c>
-      <c r="K24" s="348" t="str" cm="1">
+      <c r="K24" s="332" t="str" cm="1">
         <f t="array" ref="K24" xml:space="preserve"> IFERROR( INDEX(聲母對照資料表[閩拼方案], MATCH(TRUE, EXACT($D24, 聲母碼),0)), "")</f>
         <v>Ø</v>
       </c>
-      <c r="L24" s="352" t="str" cm="1">
+      <c r="L24" s="336" t="str" cm="1">
         <f t="array" ref="L24" xml:space="preserve"> IFERROR( INDEX(聲母對照資料表[台語注音二式], MATCH(TRUE, EXACT($D24, 聲母碼),0)), "")</f>
         <v>Ø</v>
       </c>
@@ -52171,7 +52338,7 @@
       <c r="Z24" s="104"/>
     </row>
     <row r="25" spans="2:26" ht="57.75">
-      <c r="B25" s="355" cm="1">
+      <c r="B25" s="339" cm="1">
         <f t="array" ref="B25" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>23</v>
       </c>
@@ -52237,7 +52404,7 @@
       <c r="Z25" s="104"/>
     </row>
     <row r="26" spans="2:26" ht="57.75">
-      <c r="B26" s="355" cm="1">
+      <c r="B26" s="339" cm="1">
         <f t="array" ref="B26" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>24</v>
       </c>
@@ -52303,7 +52470,7 @@
       <c r="Z26" s="104"/>
     </row>
     <row r="27" spans="2:26" ht="57.75">
-      <c r="B27" s="355" cm="1">
+      <c r="B27" s="339" cm="1">
         <f t="array" ref="B27" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>25</v>
       </c>
@@ -52369,7 +52536,7 @@
       <c r="Z27" s="104"/>
     </row>
     <row r="28" spans="2:26" ht="57.75">
-      <c r="B28" s="355" cm="1">
+      <c r="B28" s="339" cm="1">
         <f t="array" ref="B28" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>26</v>
       </c>
@@ -52432,7 +52599,7 @@
       <c r="Z28" s="104"/>
     </row>
     <row r="29" spans="2:26" ht="57.75">
-      <c r="B29" s="357" cm="1">
+      <c r="B29" s="341" cm="1">
         <f t="array" ref="B29" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>27</v>
       </c>
@@ -52498,7 +52665,7 @@
       <c r="Z29" s="104"/>
     </row>
     <row r="30" spans="2:26" ht="57.75">
-      <c r="B30" s="355" cm="1">
+      <c r="B30" s="339" cm="1">
         <f t="array" ref="B30" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>28</v>
       </c>
@@ -52561,7 +52728,7 @@
       <c r="Z30" s="104"/>
     </row>
     <row r="31" spans="2:26" ht="57.75">
-      <c r="B31" s="357" cm="1">
+      <c r="B31" s="341" cm="1">
         <f t="array" ref="B31" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>29</v>
       </c>
@@ -52624,7 +52791,7 @@
       <c r="Z31" s="104"/>
     </row>
     <row r="32" spans="2:26" ht="57.75">
-      <c r="B32" s="355" cm="1">
+      <c r="B32" s="339" cm="1">
         <f t="array" ref="B32" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>30</v>
       </c>
@@ -52687,7 +52854,7 @@
       <c r="Z32" s="104"/>
     </row>
     <row r="33" spans="2:26" ht="57.75">
-      <c r="B33" s="357" cm="1">
+      <c r="B33" s="341" cm="1">
         <f t="array" ref="B33" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>31</v>
       </c>
@@ -52753,7 +52920,7 @@
       <c r="Z33" s="104"/>
     </row>
     <row r="34" spans="2:26" ht="57.75">
-      <c r="B34" s="355" cm="1">
+      <c r="B34" s="339" cm="1">
         <f t="array" ref="B34" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>32</v>
       </c>
@@ -52819,7 +52986,7 @@
       <c r="Z34" s="104"/>
     </row>
     <row r="35" spans="2:26" ht="57.75">
-      <c r="B35" s="357" cm="1">
+      <c r="B35" s="341" cm="1">
         <f t="array" ref="B35" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>33</v>
       </c>
@@ -52873,7 +53040,7 @@
       <c r="Z35" s="104"/>
     </row>
     <row r="36" spans="2:26" ht="58.5" thickBot="1">
-      <c r="B36" s="355" cm="1">
+      <c r="B36" s="339" cm="1">
         <f t="array" ref="B36" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>34</v>
       </c>
@@ -52938,7 +53105,7 @@
       <c r="Z36" s="104"/>
     </row>
     <row r="37" spans="2:26" ht="58.5" thickTop="1">
-      <c r="B37" s="355" cm="1">
+      <c r="B37" s="339" cm="1">
         <f t="array" ref="B37" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>35</v>
       </c>
@@ -53003,7 +53170,7 @@
       <c r="Z37" s="104"/>
     </row>
     <row r="38" spans="2:26" ht="57.75">
-      <c r="B38" s="355" cm="1">
+      <c r="B38" s="339" cm="1">
         <f t="array" ref="B38" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>36</v>
       </c>
@@ -53062,7 +53229,7 @@
       <c r="Z38" s="104"/>
     </row>
     <row r="39" spans="2:26" ht="57.75">
-      <c r="B39" s="355" cm="1">
+      <c r="B39" s="339" cm="1">
         <f t="array" ref="B39" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>37</v>
       </c>
@@ -53121,7 +53288,7 @@
       <c r="Z39" s="104"/>
     </row>
     <row r="40" spans="2:26" ht="57.75">
-      <c r="B40" s="355" cm="1">
+      <c r="B40" s="339" cm="1">
         <f t="array" ref="B40" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>38</v>
       </c>
@@ -53155,7 +53322,7 @@
         <f t="array" ref="K40">IFERROR( INDEX(韻母對照資料表[閩拼方案], MATCH(TRUE, EXACT($D40, 韻母對照資料表[台語音標]),0)), "")</f>
         <v>ing</v>
       </c>
-      <c r="L40" s="350" t="str" cm="1">
+      <c r="L40" s="334" t="str" cm="1">
         <f t="array" ref="L40" xml:space="preserve"> IFERROR( INDEX(韻母對照資料表[台語注音二式], MATCH(TRUE, EXACT($D40, 韻母對照資料表[台語音標]),0)), "")</f>
         <v>ing</v>
       </c>
@@ -53182,7 +53349,7 @@
       <c r="Z40" s="104"/>
     </row>
     <row r="41" spans="2:26" ht="57.75">
-      <c r="B41" s="355" cm="1">
+      <c r="B41" s="339" cm="1">
         <f t="array" ref="B41" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>39</v>
       </c>
@@ -53216,7 +53383,7 @@
         <f t="array" ref="K41">IFERROR( INDEX(韻母對照資料表[閩拼方案], MATCH(TRUE, EXACT($D41, 韻母對照資料表[台語音標]),0)), "")</f>
         <v>ik</v>
       </c>
-      <c r="L41" s="351" t="str" cm="1">
+      <c r="L41" s="335" t="str" cm="1">
         <f t="array" ref="L41" xml:space="preserve"> IFERROR( INDEX(韻母對照資料表[台語注音二式], MATCH(TRUE, EXACT($D41, 韻母對照資料表[台語音標]),0)), "")</f>
         <v>ik</v>
       </c>
@@ -53247,7 +53414,7 @@
       <c r="Z41" s="104"/>
     </row>
     <row r="42" spans="2:26" ht="57.75">
-      <c r="B42" s="355" cm="1">
+      <c r="B42" s="339" cm="1">
         <f t="array" ref="B42" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>40</v>
       </c>
@@ -53269,15 +53436,15 @@
         <f t="array" ref="H42">IFERROR( INDEX(韻母對照資料表[十五音], MATCH(TRUE, EXACT($D42, 韻母對照資料表[台語音標]),0)), "")</f>
         <v>經</v>
       </c>
-      <c r="I42" s="349" t="str" cm="1">
+      <c r="I42" s="333" t="str" cm="1">
         <f t="array" ref="I42" xml:space="preserve"> IFERROR( INDEX(韻母對照資料表[白話字], MATCH(TRUE, EXACT($D42, 韻母對照資料表[台語音標]),0)), "")</f>
         <v>eng</v>
       </c>
-      <c r="J42" s="349" t="str" cm="1">
+      <c r="J42" s="333" t="str" cm="1">
         <f t="array" ref="J42" xml:space="preserve"> IFERROR( INDEX(韻母對照資料表[台羅拼音], MATCH(TRUE, EXACT($D42, 韻母對照資料表[台語音標]),0)), "")</f>
         <v>ing</v>
       </c>
-      <c r="K42" s="349" t="str" cm="1">
+      <c r="K42" s="333" t="str" cm="1">
         <f t="array" ref="K42">IFERROR( INDEX(韻母對照資料表[閩拼方案], MATCH(TRUE, EXACT($D42, 韻母對照資料表[台語音標]),0)), "")</f>
         <v>ing</v>
       </c>
@@ -53299,7 +53466,7 @@
       <c r="Z42" s="104"/>
     </row>
     <row r="43" spans="2:26" ht="58.5" thickBot="1">
-      <c r="B43" s="357" cm="1">
+      <c r="B43" s="341" cm="1">
         <f t="array" ref="B43" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>41</v>
       </c>
@@ -53319,15 +53486,15 @@
       <c r="H43" s="259" t="s">
         <v>1149</v>
       </c>
-      <c r="I43" s="348" t="str" cm="1">
+      <c r="I43" s="332" t="str" cm="1">
         <f t="array" ref="I43" xml:space="preserve"> IFERROR( INDEX(韻母對照資料表[白話字], MATCH(TRUE, EXACT($D43, 韻母對照資料表[台語音標]),0)), "")</f>
         <v/>
       </c>
-      <c r="J43" s="348" t="str" cm="1">
+      <c r="J43" s="332" t="str" cm="1">
         <f t="array" ref="J43" xml:space="preserve"> IFERROR( INDEX(韻母對照資料表[台羅拼音], MATCH(TRUE, EXACT($D43, 韻母對照資料表[台語音標]),0)), "")</f>
         <v/>
       </c>
-      <c r="K43" s="348" t="str" cm="1">
+      <c r="K43" s="332" t="str" cm="1">
         <f t="array" ref="K43">IFERROR( INDEX(韻母對照資料表[閩拼方案], MATCH(TRUE, EXACT($D43, 韻母對照資料表[台語音標]),0)), "")</f>
         <v/>
       </c>
@@ -53359,7 +53526,7 @@
       <c r="Z43" s="104"/>
     </row>
     <row r="44" spans="2:26" ht="58.5" thickTop="1">
-      <c r="B44" s="355" cm="1">
+      <c r="B44" s="339" cm="1">
         <f t="array" ref="B44" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>42</v>
       </c>
@@ -53423,7 +53590,7 @@
       <c r="Z44" s="104"/>
     </row>
     <row r="45" spans="2:26" ht="57.75">
-      <c r="B45" s="355" cm="1">
+      <c r="B45" s="339" cm="1">
         <f t="array" ref="B45" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>43</v>
       </c>
@@ -53488,7 +53655,7 @@
       <c r="Z45" s="104"/>
     </row>
     <row r="46" spans="2:26" ht="57.75">
-      <c r="B46" s="355" cm="1">
+      <c r="B46" s="339" cm="1">
         <f t="array" ref="B46" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>44</v>
       </c>
@@ -53538,7 +53705,7 @@
       <c r="Z46" s="104"/>
     </row>
     <row r="47" spans="2:26" ht="57.75">
-      <c r="B47" s="355" cm="1">
+      <c r="B47" s="339" cm="1">
         <f t="array" ref="B47" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>45</v>
       </c>
@@ -53589,7 +53756,7 @@
       <c r="Z47" s="104"/>
     </row>
     <row r="48" spans="2:26" ht="57.75">
-      <c r="B48" s="355" cm="1">
+      <c r="B48" s="339" cm="1">
         <f t="array" ref="B48" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>46</v>
       </c>
@@ -53653,7 +53820,7 @@
       <c r="Z48" s="104"/>
     </row>
     <row r="49" spans="2:26" ht="57.75">
-      <c r="B49" s="357" cm="1">
+      <c r="B49" s="341" cm="1">
         <f t="array" ref="B49" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>47</v>
       </c>
@@ -53666,7 +53833,7 @@
       <c r="E49" s="266" t="s">
         <v>2460</v>
       </c>
-      <c r="F49" s="331" t="str" cm="1">
+      <c r="F49" s="315" t="str" cm="1">
         <f t="array" ref="F49" xml:space="preserve"> IFERROR( INDEX(韻母對照資料表[漢字例], MATCH(TRUE, EXACT($D49, 韻母對照資料表[台語音標]),0)), "")</f>
         <v>將</v>
       </c>
@@ -53715,7 +53882,7 @@
       <c r="Z49" s="104"/>
     </row>
     <row r="50" spans="2:26" ht="57.75">
-      <c r="B50" s="355" cm="1">
+      <c r="B50" s="339" cm="1">
         <f t="array" ref="B50" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>48</v>
       </c>
@@ -53779,7 +53946,7 @@
       <c r="Z50" s="104"/>
     </row>
     <row r="51" spans="2:26" ht="57.75">
-      <c r="B51" s="357" cm="1">
+      <c r="B51" s="341" cm="1">
         <f t="array" ref="B51" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>49</v>
       </c>
@@ -53843,17 +54010,17 @@
       <c r="Z51" s="104"/>
     </row>
     <row r="52" spans="2:26" ht="57.75">
-      <c r="B52" s="358" cm="1">
+      <c r="B52" s="342" cm="1">
         <f t="array" ref="B52" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>50</v>
       </c>
-      <c r="C52" s="325" t="s">
+      <c r="C52" s="309" t="s">
         <v>1764</v>
       </c>
-      <c r="D52" s="325" t="s">
+      <c r="D52" s="309" t="s">
         <v>1737</v>
       </c>
-      <c r="E52" s="326" t="s">
+      <c r="E52" s="310" t="s">
         <v>1741</v>
       </c>
       <c r="F52" s="172" t="str" cm="1">
@@ -53907,7 +54074,7 @@
       <c r="Z52" s="104"/>
     </row>
     <row r="53" spans="2:26" ht="57.75">
-      <c r="B53" s="355" cm="1">
+      <c r="B53" s="339" cm="1">
         <f t="array" ref="B53" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>51</v>
       </c>
@@ -53920,11 +54087,11 @@
       <c r="E53" s="264" t="s">
         <v>2464</v>
       </c>
-      <c r="F53" s="327" t="s">
+      <c r="F53" s="311" t="s">
         <v>2466</v>
       </c>
       <c r="G53" s="166"/>
-      <c r="H53" s="341" t="str" cm="1">
+      <c r="H53" s="325" t="str" cm="1">
         <f t="array" ref="H53">IFERROR( INDEX(韻母對照資料表[十五音], MATCH(TRUE, EXACT($D53, 韻母對照資料表[台語音標]),0)), "")</f>
         <v/>
       </c>
@@ -53968,7 +54135,7 @@
       <c r="Z53" s="104"/>
     </row>
     <row r="54" spans="2:26" ht="57.75">
-      <c r="B54" s="355" cm="1">
+      <c r="B54" s="339" cm="1">
         <f t="array" ref="B54" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>52</v>
       </c>
@@ -53981,7 +54148,7 @@
       <c r="E54" s="264" t="s">
         <v>2465</v>
       </c>
-      <c r="F54" s="334" t="str" cm="1">
+      <c r="F54" s="318" t="str" cm="1">
         <f t="array" ref="F54" xml:space="preserve"> IFERROR( INDEX(韻母對照資料表[漢字例], MATCH(TRUE, EXACT($D54, 韻母對照資料表[台語音標]),0)), "")</f>
         <v>腔</v>
       </c>
@@ -54022,7 +54189,7 @@
       <c r="Z54" s="104"/>
     </row>
     <row r="55" spans="2:26" ht="57.75">
-      <c r="B55" s="357" cm="1">
+      <c r="B55" s="341" cm="1">
         <f t="array" ref="B55" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>53</v>
       </c>
@@ -54074,7 +54241,7 @@
       <c r="Z55" s="104"/>
     </row>
     <row r="56" spans="2:26" ht="57.75">
-      <c r="B56" s="355" cm="1">
+      <c r="B56" s="339" cm="1">
         <f t="array" ref="B56" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>54</v>
       </c>
@@ -54125,7 +54292,7 @@
       <c r="Z56" s="104"/>
     </row>
     <row r="57" spans="2:26" ht="58.5" thickBot="1">
-      <c r="B57" s="357" cm="1">
+      <c r="B57" s="341" cm="1">
         <f t="array" ref="B57" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>55</v>
       </c>
@@ -54190,17 +54357,17 @@
       <c r="Z57" s="104"/>
     </row>
     <row r="58" spans="2:26" ht="58.5" thickTop="1">
-      <c r="B58" s="358" cm="1">
+      <c r="B58" s="342" cm="1">
         <f t="array" ref="B58" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>56</v>
       </c>
-      <c r="C58" s="325" t="s">
+      <c r="C58" s="309" t="s">
         <v>1189</v>
       </c>
-      <c r="D58" s="325" t="s">
+      <c r="D58" s="309" t="s">
         <v>1189</v>
       </c>
-      <c r="E58" s="326" t="s">
+      <c r="E58" s="310" t="s">
         <v>1620</v>
       </c>
       <c r="F58" s="172" t="str" cm="1">
@@ -54256,7 +54423,7 @@
       <c r="Z58" s="104"/>
     </row>
     <row r="59" spans="2:26" ht="57.75">
-      <c r="B59" s="355" cm="1">
+      <c r="B59" s="339" cm="1">
         <f t="array" ref="B59" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>57</v>
       </c>
@@ -54321,7 +54488,7 @@
       <c r="Z59" s="104"/>
     </row>
     <row r="60" spans="2:26" ht="57.75">
-      <c r="B60" s="355" cm="1">
+      <c r="B60" s="339" cm="1">
         <f t="array" ref="B60" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>58</v>
       </c>
@@ -54388,7 +54555,7 @@
       <c r="Z60" s="104"/>
     </row>
     <row r="61" spans="2:26" ht="57.75">
-      <c r="B61" s="355" cm="1">
+      <c r="B61" s="339" cm="1">
         <f t="array" ref="B61" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>59</v>
       </c>
@@ -54401,7 +54568,7 @@
       <c r="E61" s="264" t="s">
         <v>2300</v>
       </c>
-      <c r="F61" s="327" t="str" cm="1">
+      <c r="F61" s="311" t="str" cm="1">
         <f t="array" ref="F61" xml:space="preserve"> IFERROR( INDEX(韻母對照資料表[漢字例], MATCH(TRUE, EXACT($D61, 韻母對照資料表[台語音標]),0)), "")</f>
         <v>丼</v>
       </c>
@@ -54455,7 +54622,7 @@
       <c r="Z61" s="104"/>
     </row>
     <row r="62" spans="2:26" ht="57.75">
-      <c r="B62" s="355" cm="1">
+      <c r="B62" s="339" cm="1">
         <f t="array" ref="B62" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>60</v>
       </c>
@@ -54520,7 +54687,7 @@
       <c r="Z62" s="104"/>
     </row>
     <row r="63" spans="2:26" ht="57.75">
-      <c r="B63" s="355" cm="1">
+      <c r="B63" s="339" cm="1">
         <f t="array" ref="B63" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>61</v>
       </c>
@@ -54587,7 +54754,7 @@
       <c r="Z63" s="104"/>
     </row>
     <row r="64" spans="2:26" ht="57.75">
-      <c r="B64" s="357" cm="1">
+      <c r="B64" s="341" cm="1">
         <f t="array" ref="B64" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>62</v>
       </c>
@@ -54651,7 +54818,7 @@
       <c r="Z64" s="104"/>
     </row>
     <row r="65" spans="2:26" ht="57.75">
-      <c r="B65" s="355" cm="1">
+      <c r="B65" s="339" cm="1">
         <f t="array" ref="B65" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>63</v>
       </c>
@@ -54701,7 +54868,7 @@
       <c r="Z65" s="104"/>
     </row>
     <row r="66" spans="2:26" ht="57.75">
-      <c r="B66" s="355" cm="1">
+      <c r="B66" s="339" cm="1">
         <f t="array" ref="B66" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>64</v>
       </c>
@@ -54714,28 +54881,28 @@
       <c r="E66" s="270" t="s">
         <v>1770</v>
       </c>
-      <c r="F66" s="343" t="str" cm="1">
+      <c r="F66" s="327" t="str" cm="1">
         <f t="array" ref="F66" xml:space="preserve"> IFERROR( INDEX(韻母對照資料表[漢字例], MATCH(TRUE, EXACT($D66, 韻母對照資料表[台語音標]),0)), "")</f>
         <v/>
       </c>
-      <c r="G66" s="343"/>
-      <c r="H66" s="342" t="str" cm="1">
+      <c r="G66" s="327"/>
+      <c r="H66" s="326" t="str" cm="1">
         <f t="array" ref="H66">IFERROR( INDEX(韻母對照資料表[十五音], MATCH(TRUE, EXACT($D66, 韻母對照資料表[台語音標]),0)), "")</f>
         <v/>
       </c>
-      <c r="I66" s="344" t="str" cm="1">
+      <c r="I66" s="328" t="str" cm="1">
         <f t="array" ref="I66" xml:space="preserve"> IFERROR( INDEX(韻母對照資料表[白話字], MATCH(TRUE, EXACT($D66, 韻母對照資料表[台語音標]),0)), "")</f>
         <v/>
       </c>
-      <c r="J66" s="344" t="str" cm="1">
+      <c r="J66" s="328" t="str" cm="1">
         <f t="array" ref="J66" xml:space="preserve"> IFERROR( INDEX(韻母對照資料表[台羅拼音], MATCH(TRUE, EXACT($D66, 韻母對照資料表[台語音標]),0)), "")</f>
         <v/>
       </c>
-      <c r="K66" s="344" t="str" cm="1">
+      <c r="K66" s="328" t="str" cm="1">
         <f t="array" ref="K66">IFERROR( INDEX(韻母對照資料表[閩拼方案], MATCH(TRUE, EXACT($D66, 韻母對照資料表[台語音標]),0)), "")</f>
         <v/>
       </c>
-      <c r="L66" s="345" t="str" cm="1">
+      <c r="L66" s="329" t="str" cm="1">
         <f t="array" ref="L66" xml:space="preserve"> IFERROR( INDEX(韻母對照資料表[台語注音二式], MATCH(TRUE, EXACT($D66, 韻母對照資料表[台語音標]),0)), "")</f>
         <v/>
       </c>
@@ -54751,7 +54918,7 @@
       <c r="Z66" s="104"/>
     </row>
     <row r="67" spans="2:26" ht="57.75">
-      <c r="B67" s="357" cm="1">
+      <c r="B67" s="341" cm="1">
         <f t="array" ref="B67" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>65</v>
       </c>
@@ -54800,7 +54967,7 @@
       <c r="Z67" s="104"/>
     </row>
     <row r="68" spans="2:26" ht="58.5" thickBot="1">
-      <c r="B68" s="355" cm="1">
+      <c r="B68" s="339" cm="1">
         <f t="array" ref="B68" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>66</v>
       </c>
@@ -54863,7 +55030,7 @@
       <c r="Z68" s="104"/>
     </row>
     <row r="69" spans="2:26" ht="58.5" thickTop="1">
-      <c r="B69" s="355" cm="1">
+      <c r="B69" s="339" cm="1">
         <f t="array" ref="B69" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>67</v>
       </c>
@@ -54927,7 +55094,7 @@
       <c r="Z69" s="104"/>
     </row>
     <row r="70" spans="2:26" ht="57.75">
-      <c r="B70" s="357" cm="1">
+      <c r="B70" s="341" cm="1">
         <f t="array" ref="B70" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>68</v>
       </c>
@@ -54990,7 +55157,7 @@
       <c r="Z70" s="104"/>
     </row>
     <row r="71" spans="2:26" ht="57.75">
-      <c r="B71" s="355" cm="1">
+      <c r="B71" s="339" cm="1">
         <f t="array" ref="B71" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>69</v>
       </c>
@@ -55038,7 +55205,7 @@
       <c r="Z71" s="104"/>
     </row>
     <row r="72" spans="2:26" ht="57.75">
-      <c r="B72" s="357" cm="1">
+      <c r="B72" s="341" cm="1">
         <f t="array" ref="B72" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>70</v>
       </c>
@@ -55086,17 +55253,17 @@
       <c r="Z72" s="104"/>
     </row>
     <row r="73" spans="2:26" ht="57.75">
-      <c r="B73" s="358" cm="1">
+      <c r="B73" s="342" cm="1">
         <f t="array" ref="B73" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>71</v>
       </c>
-      <c r="C73" s="325" t="s">
+      <c r="C73" s="309" t="s">
         <v>1743</v>
       </c>
-      <c r="D73" s="325" t="s">
+      <c r="D73" s="309" t="s">
         <v>1743</v>
       </c>
-      <c r="E73" s="326" t="s">
+      <c r="E73" s="310" t="s">
         <v>1609</v>
       </c>
       <c r="F73" s="172" t="str" cm="1">
@@ -55134,7 +55301,7 @@
       <c r="Z73" s="104"/>
     </row>
     <row r="74" spans="2:26" ht="57.75">
-      <c r="B74" s="355" cm="1">
+      <c r="B74" s="339" cm="1">
         <f t="array" ref="B74" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>72</v>
       </c>
@@ -55182,7 +55349,7 @@
       <c r="Z74" s="104"/>
     </row>
     <row r="75" spans="2:26" ht="57.75">
-      <c r="B75" s="357" cm="1">
+      <c r="B75" s="341" cm="1">
         <f t="array" ref="B75" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>73</v>
       </c>
@@ -55230,7 +55397,7 @@
       <c r="Z75" s="104"/>
     </row>
     <row r="76" spans="2:26" ht="57.75">
-      <c r="B76" s="355" cm="1">
+      <c r="B76" s="339" cm="1">
         <f t="array" ref="B76" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>74</v>
       </c>
@@ -55280,7 +55447,7 @@
       <c r="Z76" s="104"/>
     </row>
     <row r="77" spans="2:26" ht="57.75">
-      <c r="B77" s="355" cm="1">
+      <c r="B77" s="339" cm="1">
         <f t="array" ref="B77" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>75</v>
       </c>
@@ -55297,7 +55464,7 @@
         <v>2472</v>
       </c>
       <c r="G77" s="166"/>
-      <c r="H77" s="341" t="str" cm="1">
+      <c r="H77" s="325" t="str" cm="1">
         <f t="array" ref="H77">IFERROR( INDEX(韻母對照資料表[十五音], MATCH(TRUE, EXACT($D77, 韻母對照資料表[台語音標]),0)), "")</f>
         <v/>
       </c>
@@ -55310,10 +55477,10 @@
       <c r="K77" s="108" t="s">
         <v>1093</v>
       </c>
-      <c r="L77" s="346" t="s">
+      <c r="L77" s="330" t="s">
         <v>1093</v>
       </c>
-      <c r="M77" s="347" t="s">
+      <c r="M77" s="331" t="s">
         <v>1093</v>
       </c>
       <c r="N77" s="109" t="s">
@@ -55325,7 +55492,7 @@
       <c r="Z77" s="104"/>
     </row>
     <row r="78" spans="2:26" ht="57.75">
-      <c r="B78" s="357" cm="1">
+      <c r="B78" s="341" cm="1">
         <f t="array" ref="B78" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>76</v>
       </c>
@@ -55375,7 +55542,7 @@
       <c r="Z78" s="104"/>
     </row>
     <row r="79" spans="2:26">
-      <c r="B79" s="355" cm="1">
+      <c r="B79" s="339" cm="1">
         <f t="array" ref="B79" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>77</v>
       </c>
@@ -55409,7 +55576,7 @@
       <c r="Z79" s="104"/>
     </row>
     <row r="80" spans="2:26">
-      <c r="B80" s="355" cm="1">
+      <c r="B80" s="339" cm="1">
         <f t="array" ref="B80" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>78</v>
       </c>
@@ -55443,7 +55610,7 @@
       <c r="Z80" s="104"/>
     </row>
     <row r="81" spans="2:26">
-      <c r="B81" s="355" cm="1">
+      <c r="B81" s="339" cm="1">
         <f t="array" ref="B81" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>79</v>
       </c>
@@ -55477,7 +55644,7 @@
       <c r="Z81" s="104"/>
     </row>
     <row r="82" spans="2:26">
-      <c r="B82" s="355" cm="1">
+      <c r="B82" s="339" cm="1">
         <f t="array" ref="B82" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>80</v>
       </c>
@@ -55511,7 +55678,7 @@
       <c r="Z82" s="104"/>
     </row>
     <row r="83" spans="2:26" ht="43.5">
-      <c r="B83" s="356" cm="1">
+      <c r="B83" s="340" cm="1">
         <f t="array" ref="B83" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>81</v>
       </c>
@@ -55555,7 +55722,7 @@
       <c r="Z83" s="104"/>
     </row>
     <row r="84" spans="2:26" ht="43.5">
-      <c r="B84" s="355" cm="1">
+      <c r="B84" s="339" cm="1">
         <f t="array" ref="B84" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>82</v>
       </c>
@@ -55599,7 +55766,7 @@
       <c r="Z84" s="104"/>
     </row>
     <row r="85" spans="2:26" ht="43.5">
-      <c r="B85" s="355" cm="1">
+      <c r="B85" s="339" cm="1">
         <f t="array" ref="B85" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>83</v>
       </c>
@@ -55643,7 +55810,7 @@
       <c r="Z85" s="104"/>
     </row>
     <row r="86" spans="2:26" ht="43.5">
-      <c r="B86" s="355" cm="1">
+      <c r="B86" s="339" cm="1">
         <f t="array" ref="B86" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>84</v>
       </c>
@@ -55683,7 +55850,7 @@
       <c r="Z86" s="104"/>
     </row>
     <row r="87" spans="2:26" ht="43.5">
-      <c r="B87" s="355" cm="1">
+      <c r="B87" s="339" cm="1">
         <f t="array" ref="B87" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>85</v>
       </c>
@@ -55727,7 +55894,7 @@
       <c r="Z87" s="104"/>
     </row>
     <row r="88" spans="2:26" ht="43.5">
-      <c r="B88" s="355" cm="1">
+      <c r="B88" s="339" cm="1">
         <f t="array" ref="B88" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>86</v>
       </c>
@@ -55771,7 +55938,7 @@
       <c r="Z88" s="104"/>
     </row>
     <row r="89" spans="2:26" ht="43.5">
-      <c r="B89" s="357" cm="1">
+      <c r="B89" s="341" cm="1">
         <f t="array" ref="B89" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>87</v>
       </c>
@@ -57985,7 +58152,7 @@
       <c r="E47" s="5" t="s">
         <v>2460</v>
       </c>
-      <c r="F47" s="328" t="s">
+      <c r="F47" s="312" t="s">
         <v>1200</v>
       </c>
       <c r="G47" s="5"/>
@@ -58167,39 +58334,39 @@
       <c r="T50" s="5"/>
     </row>
     <row r="51" spans="2:20" ht="43.5">
-      <c r="B51" s="329" t="s">
+      <c r="B51" s="313" t="s">
         <v>690</v>
       </c>
-      <c r="C51" s="332" t="s">
+      <c r="C51" s="316" t="s">
         <v>2463</v>
       </c>
-      <c r="D51" s="332" t="s">
+      <c r="D51" s="316" t="s">
         <v>1819</v>
       </c>
-      <c r="E51" s="332" t="s">
+      <c r="E51" s="316" t="s">
         <v>2464</v>
       </c>
-      <c r="F51" s="333" t="s">
+      <c r="F51" s="317" t="s">
         <v>2466</v>
       </c>
-      <c r="G51" s="332"/>
-      <c r="H51" s="332"/>
-      <c r="I51" s="332" t="s">
+      <c r="G51" s="316"/>
+      <c r="H51" s="316"/>
+      <c r="I51" s="316" t="s">
         <v>523</v>
       </c>
-      <c r="J51" s="332" t="s">
+      <c r="J51" s="316" t="s">
         <v>524</v>
       </c>
-      <c r="K51" s="332" t="s">
+      <c r="K51" s="316" t="s">
         <v>525</v>
       </c>
-      <c r="L51" s="332" t="s">
+      <c r="L51" s="316" t="s">
         <v>526</v>
       </c>
-      <c r="M51" s="332" t="s">
+      <c r="M51" s="316" t="s">
         <v>527</v>
       </c>
-      <c r="N51" s="332" t="s">
+      <c r="N51" s="316" t="s">
         <v>528</v>
       </c>
       <c r="O51" s="5"/>
@@ -58210,37 +58377,37 @@
       <c r="T51" s="5"/>
     </row>
     <row r="52" spans="2:20" ht="43.5">
-      <c r="B52" s="329" t="s">
+      <c r="B52" s="313" t="s">
         <v>690</v>
       </c>
-      <c r="C52" s="332" t="s">
+      <c r="C52" s="316" t="s">
         <v>2155</v>
       </c>
-      <c r="D52" s="332" t="s">
+      <c r="D52" s="316" t="s">
         <v>1881</v>
       </c>
-      <c r="E52" s="332" t="s">
+      <c r="E52" s="316" t="s">
         <v>2465</v>
       </c>
-      <c r="F52" s="335" t="s">
+      <c r="F52" s="319" t="s">
         <v>2467</v>
       </c>
-      <c r="G52" s="332"/>
-      <c r="H52" s="330"/>
-      <c r="I52" s="332" t="s">
+      <c r="G52" s="316"/>
+      <c r="H52" s="314"/>
+      <c r="I52" s="316" t="s">
         <v>753</v>
       </c>
-      <c r="J52" s="332" t="s">
+      <c r="J52" s="316" t="s">
         <v>754</v>
       </c>
-      <c r="K52" s="332"/>
-      <c r="L52" s="332" t="s">
+      <c r="K52" s="316"/>
+      <c r="L52" s="316" t="s">
         <v>755</v>
       </c>
-      <c r="M52" s="332" t="s">
+      <c r="M52" s="316" t="s">
         <v>756</v>
       </c>
-      <c r="N52" s="332" t="s">
+      <c r="N52" s="316" t="s">
         <v>757</v>
       </c>
       <c r="O52" s="4"/>
@@ -58405,46 +58572,46 @@
       <c r="T56" s="4"/>
     </row>
     <row r="57" spans="2:20">
-      <c r="B57" s="337" t="s">
+      <c r="B57" s="321" t="s">
         <v>516</v>
       </c>
-      <c r="C57" s="338" t="s">
+      <c r="C57" s="322" t="s">
         <v>517</v>
       </c>
-      <c r="D57" s="338" t="s">
+      <c r="D57" s="322" t="s">
         <v>518</v>
       </c>
-      <c r="E57" s="338" t="s">
+      <c r="E57" s="322" t="s">
         <v>519</v>
       </c>
-      <c r="F57" s="338" t="s">
+      <c r="F57" s="322" t="s">
         <v>520</v>
       </c>
-      <c r="G57" s="338" t="s">
+      <c r="G57" s="322" t="s">
         <v>521</v>
       </c>
-      <c r="H57" s="338" t="s">
+      <c r="H57" s="322" t="s">
         <v>522</v>
       </c>
-      <c r="I57" s="338" t="s">
+      <c r="I57" s="322" t="s">
         <v>523</v>
       </c>
-      <c r="J57" s="338" t="s">
+      <c r="J57" s="322" t="s">
         <v>524</v>
       </c>
-      <c r="K57" s="338" t="s">
+      <c r="K57" s="322" t="s">
         <v>525</v>
       </c>
-      <c r="L57" s="338" t="s">
+      <c r="L57" s="322" t="s">
         <v>526</v>
       </c>
-      <c r="M57" s="338" t="s">
+      <c r="M57" s="322" t="s">
         <v>527</v>
       </c>
-      <c r="N57" s="338" t="s">
+      <c r="N57" s="322" t="s">
         <v>528</v>
       </c>
-      <c r="O57" s="336"/>
+      <c r="O57" s="320"/>
       <c r="P57" s="4"/>
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
@@ -58452,40 +58619,40 @@
       <c r="T57" s="4"/>
     </row>
     <row r="58" spans="2:20">
-      <c r="B58" s="337" t="s">
+      <c r="B58" s="321" t="s">
         <v>748</v>
       </c>
-      <c r="C58" s="338" t="s">
+      <c r="C58" s="322" t="s">
         <v>749</v>
       </c>
-      <c r="D58" s="338"/>
-      <c r="E58" s="338" t="s">
+      <c r="D58" s="322"/>
+      <c r="E58" s="322" t="s">
         <v>750</v>
       </c>
-      <c r="F58" s="338" t="s">
+      <c r="F58" s="322" t="s">
         <v>751</v>
       </c>
-      <c r="G58" s="338" t="s">
+      <c r="G58" s="322" t="s">
         <v>752</v>
       </c>
-      <c r="H58" s="338"/>
-      <c r="I58" s="338" t="s">
+      <c r="H58" s="322"/>
+      <c r="I58" s="322" t="s">
         <v>753</v>
       </c>
-      <c r="J58" s="338" t="s">
+      <c r="J58" s="322" t="s">
         <v>754</v>
       </c>
-      <c r="K58" s="338"/>
-      <c r="L58" s="338" t="s">
+      <c r="K58" s="322"/>
+      <c r="L58" s="322" t="s">
         <v>755</v>
       </c>
-      <c r="M58" s="338" t="s">
+      <c r="M58" s="322" t="s">
         <v>756</v>
       </c>
-      <c r="N58" s="338" t="s">
+      <c r="N58" s="322" t="s">
         <v>757</v>
       </c>
-      <c r="O58" s="336"/>
+      <c r="O58" s="320"/>
       <c r="P58" s="4" t="s">
         <v>696</v>
       </c>
@@ -58495,25 +58662,25 @@
       <c r="T58" s="4"/>
     </row>
     <row r="59" spans="2:20">
-      <c r="B59" s="329" t="s">
+      <c r="B59" s="313" t="s">
         <v>666</v>
       </c>
-      <c r="C59" s="332" t="s">
+      <c r="C59" s="316" t="s">
         <v>667</v>
       </c>
-      <c r="D59" s="332" t="s">
+      <c r="D59" s="316" t="s">
         <v>668</v>
       </c>
-      <c r="E59" s="332"/>
-      <c r="F59" s="332"/>
-      <c r="G59" s="332"/>
-      <c r="H59" s="332"/>
-      <c r="I59" s="332"/>
-      <c r="J59" s="332"/>
-      <c r="K59" s="332"/>
-      <c r="L59" s="332"/>
-      <c r="M59" s="332"/>
-      <c r="N59" s="332"/>
+      <c r="E59" s="316"/>
+      <c r="F59" s="316"/>
+      <c r="G59" s="316"/>
+      <c r="H59" s="316"/>
+      <c r="I59" s="316"/>
+      <c r="J59" s="316"/>
+      <c r="K59" s="316"/>
+      <c r="L59" s="316"/>
+      <c r="M59" s="316"/>
+      <c r="N59" s="316"/>
       <c r="O59" s="4"/>
       <c r="P59" s="4" t="s">
         <v>708</v>
@@ -58575,39 +58742,39 @@
       <c r="T60" s="4"/>
     </row>
     <row r="61" spans="2:20">
-      <c r="B61" s="329" t="s">
+      <c r="B61" s="313" t="s">
         <v>492</v>
       </c>
-      <c r="C61" s="330" t="s">
+      <c r="C61" s="314" t="s">
         <v>493</v>
       </c>
-      <c r="D61" s="330" t="s">
+      <c r="D61" s="314" t="s">
         <v>494</v>
       </c>
-      <c r="E61" s="330" t="s">
+      <c r="E61" s="314" t="s">
         <v>495</v>
       </c>
-      <c r="F61" s="330" t="s">
+      <c r="F61" s="314" t="s">
         <v>496</v>
       </c>
-      <c r="G61" s="330" t="s">
+      <c r="G61" s="314" t="s">
         <v>497</v>
       </c>
-      <c r="H61" s="330"/>
-      <c r="I61" s="330" t="s">
+      <c r="H61" s="314"/>
+      <c r="I61" s="314" t="s">
         <v>498</v>
       </c>
-      <c r="J61" s="330" t="s">
+      <c r="J61" s="314" t="s">
         <v>499</v>
       </c>
-      <c r="K61" s="330"/>
-      <c r="L61" s="330" t="s">
+      <c r="K61" s="314"/>
+      <c r="L61" s="314" t="s">
         <v>500</v>
       </c>
-      <c r="M61" s="330" t="s">
+      <c r="M61" s="314" t="s">
         <v>501</v>
       </c>
-      <c r="N61" s="330" t="s">
+      <c r="N61" s="314" t="s">
         <v>502</v>
       </c>
       <c r="O61" s="4"/>
@@ -58626,29 +58793,29 @@
       <c r="T61" s="4"/>
     </row>
     <row r="62" spans="2:20">
-      <c r="B62" s="329" t="s">
+      <c r="B62" s="313" t="s">
         <v>492</v>
       </c>
-      <c r="C62" s="330" t="s">
+      <c r="C62" s="314" t="s">
         <v>1840</v>
       </c>
-      <c r="D62" s="330" t="s">
+      <c r="D62" s="314" t="s">
         <v>1840</v>
       </c>
-      <c r="E62" s="330" t="s">
+      <c r="E62" s="314" t="s">
         <v>2468</v>
       </c>
-      <c r="F62" s="330" t="s">
+      <c r="F62" s="314" t="s">
         <v>2349</v>
       </c>
-      <c r="G62" s="330"/>
+      <c r="G62" s="314"/>
       <c r="H62" s="5"/>
-      <c r="I62" s="330"/>
-      <c r="J62" s="330"/>
-      <c r="K62" s="330"/>
-      <c r="L62" s="330"/>
-      <c r="M62" s="330"/>
-      <c r="N62" s="330"/>
+      <c r="I62" s="314"/>
+      <c r="J62" s="314"/>
+      <c r="K62" s="314"/>
+      <c r="L62" s="314"/>
+      <c r="M62" s="314"/>
+      <c r="N62" s="314"/>
       <c r="O62" s="5" t="s">
         <v>743</v>
       </c>
